--- a/Monitor and Control/Reviews.xlsx
+++ b/Monitor and Control/Reviews.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI\QA project Team D\Monitor and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI Study\QA Project\TravelAdvisor\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3722167-6AE2-464C-AB02-05C08403E2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMP" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
   <definedNames>
     <definedName name="Options">Options!$B$1:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="80">
   <si>
     <t>Review No.</t>
   </si>
@@ -281,11 +282,14 @@
   <si>
     <t>RMP_06</t>
   </si>
+  <si>
+    <t>26/4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy"/>
   </numFmts>
@@ -738,7 +742,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -788,7 +792,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-27D6-487A-AA22-0D6B554A5A49}"/>
               </c:ext>
@@ -802,7 +806,7 @@
                 <a:srgbClr val="92D050"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-27D6-487A-AA22-0D6B554A5A49}"/>
               </c:ext>
@@ -834,11 +838,13 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-27D6-487A-AA22-0D6B554A5A49}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -866,11 +872,13 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-27D6-487A-AA22-0D6B554A5A49}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -887,7 +895,7 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -912,7 +920,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -920,7 +928,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-27D6-487A-AA22-0D6B554A5A49}"/>
             </c:ext>
@@ -970,7 +978,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -992,7 +1000,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-03DF-44F1-832A-8EA9D7319E92}"/>
               </c:ext>
@@ -1006,7 +1014,7 @@
                 <a:srgbClr val="92D050"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-03DF-44F1-832A-8EA9D7319E92}"/>
               </c:ext>
@@ -1041,7 +1049,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-03DF-44F1-832A-8EA9D7319E92}"/>
             </c:ext>
@@ -1105,7 +1113,7 @@
         <xdr:cNvPr id="2" name="Chart 1" title="Chart">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1136,7 +1144,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,7 +1362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1575,7 +1583,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E20">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E20" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -1585,7 +1593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1682,7 +1690,7 @@
       </c>
       <c r="N3" s="24">
         <f>COUNTIFS(SRS!E2:E1047596,"Open")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="21"/>
       <c r="P3" s="21"/>
@@ -1758,7 +1766,7 @@
       </c>
       <c r="N5" s="24">
         <f>SUM(N3:N4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
@@ -29645,7 +29653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -29796,7 +29804,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -29805,7 +29813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -29939,7 +29947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -30084,7 +30092,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -30093,13 +30101,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -30240,7 +30248,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -30249,7 +30257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -30384,7 +30392,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -30393,7 +30401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -30527,7 +30535,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -30536,12 +30544,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -30634,13 +30642,17 @@
         <v>62</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="37.5" customHeight="1">
       <c r="A5" s="5"/>
@@ -30740,7 +30752,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E20">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E20" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -30750,7 +30762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Monitor and Control/Reviews.xlsx
+++ b/Monitor and Control/Reviews.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI Study\QA Project\TravelAdvisor\Monitor and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nadaf\Desktop\ITI\QA\QA_workshop\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3722167-6AE2-464C-AB02-05C08403E2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8892AECC-E90C-4A7C-A5D4-D30C761F2BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMP" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -44,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="91">
   <si>
     <t>Review No.</t>
   </si>
@@ -285,6 +283,52 @@
   <si>
     <t>26/4</t>
   </si>
+  <si>
+    <t>29/4</t>
+  </si>
+  <si>
+    <t>SRS_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Page
+REQ-03-Home
+I think this requirement describes the interface requirement much more, 
+it can describe our system when the user clicks on the view button in every destination available, it will navigate him to the destination page that will have different information about tours, date of the trip, cost, and flight date. </t>
+  </si>
+  <si>
+    <t>A.Login
+REQ-07-Admin_Login
+I think this is contradictory requirment , with requirment REQ-04-Admin_Login</t>
+  </si>
+  <si>
+    <t>Add Admin
+REQ-01-Add_Admin
+I think this requiremnt has two different purposes,
+ it can be divided into two requirment sto be clear enough for the developers.</t>
+  </si>
+  <si>
+    <t>SRS_05</t>
+  </si>
+  <si>
+    <t>SRS_06</t>
+  </si>
+  <si>
+    <t>SRS_07</t>
+  </si>
+  <si>
+    <t>Add Admin
+REQ-03-Add_Admin
+Does the admin will add a name or username ?
+As this will be contraductory requirment with requirment REQ-02-User_Login.</t>
+  </si>
+  <si>
+    <t>Add Tour
+REQ-01-Add_Tour
+This requirement missed important information as flight date.</t>
+  </si>
+  <si>
+    <t>SRS_08</t>
+  </si>
 </sst>
 </file>
 
@@ -347,7 +391,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -649,11 +693,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -724,6 +822,30 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -920,7 +1042,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -961,7 +1083,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ar-EG"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1082,7 +1204,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ar-EG"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1689,8 +1811,8 @@
         <v>54</v>
       </c>
       <c r="N3" s="24">
-        <f>COUNTIFS(SRS!E2:E1047596,"Open")</f>
-        <v>0</v>
+        <f>COUNTIFS(SRS!E2:E1047597,"Open")</f>
+        <v>5</v>
       </c>
       <c r="O3" s="21"/>
       <c r="P3" s="21"/>
@@ -1727,7 +1849,7 @@
         <v>58</v>
       </c>
       <c r="N4" s="24">
-        <f>COUNTIFS(SRS!E2:E1047596,"Closed")</f>
+        <f>COUNTIFS(SRS!E2:E1047597,"Closed")</f>
         <v>0</v>
       </c>
       <c r="O4" s="21"/>
@@ -1766,7 +1888,7 @@
       </c>
       <c r="N5" s="24">
         <f>SUM(N3:N4)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
@@ -30545,11 +30667,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -30654,57 +30776,105 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+    <row r="5" spans="1:8" ht="86.4" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>82</v>
+      </c>
       <c r="E5" s="6" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+    <row r="6" spans="1:8" ht="49.8" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>83</v>
+      </c>
       <c r="E6" s="6" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+    <row r="7" spans="1:8" ht="60.6" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>84</v>
+      </c>
       <c r="E7" s="6" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11" t="s">
-        <v>10</v>
+    <row r="8" spans="1:8" ht="72" customHeight="1">
+      <c r="A8" s="35" t="s">
+        <v>87</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="14.25" customHeight="1">
-      <c r="E9" s="13"/>
-      <c r="G9" s="14"/>
+      <c r="B8" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="36"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+    </row>
+    <row r="9" spans="1:8" ht="45" customHeight="1">
+      <c r="A9" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1">
       <c r="E10" s="13"/>
@@ -30750,9 +30920,13 @@
       <c r="E20" s="13"/>
       <c r="G20" s="14"/>
     </row>
+    <row r="21" spans="5:7" ht="14.25" customHeight="1">
+      <c r="E21" s="13"/>
+      <c r="G21" s="14"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E20" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E21" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>

--- a/Monitor and Control/Reviews.xlsx
+++ b/Monitor and Control/Reviews.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nadaf\Desktop\ITI\QA\QA_workshop\Monitor and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI Study\QA Project\TravelAdvisor\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8892AECC-E90C-4A7C-A5D4-D30C761F2BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5421D484-E3D5-487C-AAEF-09C1AE0A904B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMP" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
   <si>
     <t>Review No.</t>
   </si>
@@ -328,6 +330,9 @@
   </si>
   <si>
     <t>SRS_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update fuction names </t>
   </si>
 </sst>
 </file>
@@ -812,16 +817,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -846,6 +841,16 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1083,7 +1088,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ar-EG"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1204,7 +1209,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ar-EG"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1786,7 +1791,7 @@
       <c r="Z2" s="22"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="36" t="s">
         <v>56</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -1804,7 +1809,7 @@
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="39" t="s">
         <v>57</v>
       </c>
       <c r="M3" s="24" t="s">
@@ -1828,7 +1833,7 @@
       <c r="Z3" s="22"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="29"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="23" t="s">
         <v>58</v>
       </c>
@@ -1844,7 +1849,7 @@
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
-      <c r="L4" s="32"/>
+      <c r="L4" s="40"/>
       <c r="M4" s="24" t="s">
         <v>58</v>
       </c>
@@ -1866,7 +1871,7 @@
       <c r="Z4" s="22"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" s="30"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="23" t="s">
         <v>59</v>
       </c>
@@ -1882,7 +1887,7 @@
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
-      <c r="L5" s="33"/>
+      <c r="L5" s="41"/>
       <c r="M5" s="24" t="s">
         <v>59</v>
       </c>
@@ -30075,8 +30080,8 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -30160,15 +30165,27 @@
       <c r="A4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="33.75" customHeight="1">
       <c r="A5" s="15" t="s">
@@ -30669,8 +30686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -30786,7 +30803,7 @@
       <c r="C5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="28" t="s">
         <v>82</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -30806,7 +30823,7 @@
       <c r="C6" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="28" t="s">
         <v>83</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -30826,7 +30843,7 @@
       <c r="C7" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="28" t="s">
         <v>84</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -30837,44 +30854,44 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" ht="72" customHeight="1">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="1:8" ht="45" customHeight="1">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1">
       <c r="E10" s="13"/>

--- a/Monitor and Control/Reviews.xlsx
+++ b/Monitor and Control/Reviews.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nadaf\Desktop\ITI\QA\QA_workshop\Monitor and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI\QA project Team D\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8892AECC-E90C-4A7C-A5D4-D30C761F2BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="PMP" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
   <definedNames>
     <definedName name="Options">Options!$B$1:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="91">
   <si>
     <t>Review No.</t>
   </si>
@@ -316,12 +315,6 @@
     <t>SRS_07</t>
   </si>
   <si>
-    <t>Add Admin
-REQ-03-Add_Admin
-Does the admin will add a name or username ?
-As this will be contraductory requirment with requirment REQ-02-User_Login.</t>
-  </si>
-  <si>
     <t>Add Tour
 REQ-01-Add_Tour
 This requirement missed important information as flight date.</t>
@@ -329,11 +322,17 @@
   <si>
     <t>SRS_08</t>
   </si>
+  <si>
+    <t>Add Admin
+REQ-03-Add_Admin
+Does the admin will add a name or username ?
+As this will be contraductory requirment with requirment REQ-02-Admin_Login.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy"/>
   </numFmts>
@@ -812,16 +811,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -846,6 +835,16 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -864,7 +863,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -914,7 +913,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-27D6-487A-AA22-0D6B554A5A49}"/>
               </c:ext>
@@ -928,7 +927,7 @@
                 <a:srgbClr val="92D050"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-27D6-487A-AA22-0D6B554A5A49}"/>
               </c:ext>
@@ -960,13 +959,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-27D6-487A-AA22-0D6B554A5A49}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -994,13 +991,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-27D6-487A-AA22-0D6B554A5A49}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1017,7 +1012,7 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -1050,7 +1045,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-27D6-487A-AA22-0D6B554A5A49}"/>
             </c:ext>
@@ -1083,7 +1078,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ar-EG"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1100,7 +1095,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -1122,7 +1117,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-03DF-44F1-832A-8EA9D7319E92}"/>
               </c:ext>
@@ -1136,7 +1131,7 @@
                 <a:srgbClr val="92D050"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-03DF-44F1-832A-8EA9D7319E92}"/>
               </c:ext>
@@ -1171,7 +1166,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-03DF-44F1-832A-8EA9D7319E92}"/>
             </c:ext>
@@ -1204,7 +1199,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ar-EG"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1235,7 +1230,7 @@
         <xdr:cNvPr id="2" name="Chart 1" title="Chart">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1266,7 +1261,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1484,7 +1479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1705,7 +1700,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E20" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E20">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -1715,7 +1710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1786,7 +1781,7 @@
       <c r="Z2" s="22"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="36" t="s">
         <v>56</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -1804,7 +1799,7 @@
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="39" t="s">
         <v>57</v>
       </c>
       <c r="M3" s="24" t="s">
@@ -1828,7 +1823,7 @@
       <c r="Z3" s="22"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="29"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="23" t="s">
         <v>58</v>
       </c>
@@ -1844,7 +1839,7 @@
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
-      <c r="L4" s="32"/>
+      <c r="L4" s="40"/>
       <c r="M4" s="24" t="s">
         <v>58</v>
       </c>
@@ -1866,7 +1861,7 @@
       <c r="Z4" s="22"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" s="30"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="23" t="s">
         <v>59</v>
       </c>
@@ -1882,7 +1877,7 @@
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
-      <c r="L5" s="33"/>
+      <c r="L5" s="41"/>
       <c r="M5" s="24" t="s">
         <v>59</v>
       </c>
@@ -29775,7 +29770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -29926,7 +29921,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -29935,7 +29930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -30069,7 +30064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -30214,7 +30209,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -30223,7 +30218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -30370,7 +30365,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -30379,7 +30374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -30514,7 +30509,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -30523,7 +30518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -30657,7 +30652,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -30666,12 +30661,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -30786,13 +30781,15 @@
       <c r="C5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="28" t="s">
         <v>82</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
@@ -30806,13 +30803,15 @@
       <c r="C6" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="28" t="s">
         <v>83</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
@@ -30826,55 +30825,61 @@
       <c r="C7" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="28" t="s">
         <v>84</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" ht="72" customHeight="1">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="1:8" ht="45" customHeight="1">
+      <c r="A9" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E9" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-    </row>
-    <row r="9" spans="1:8" ht="45" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>90</v>
+      <c r="F9" s="7" t="s">
+        <v>20</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1">
       <c r="E10" s="13"/>
@@ -30926,7 +30931,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E21" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E21">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -30936,7 +30941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Monitor and Control/Reviews.xlsx
+++ b/Monitor and Control/Reviews.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI Study\QA Project\TravelAdvisor\Monitor and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nadaf\Desktop\ITI\QA\QA_workshop\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5421D484-E3D5-487C-AAEF-09C1AE0A904B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A2688F-EF79-45F1-923F-16FD2E0B9177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMP" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -44,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
   <si>
     <t>Review No.</t>
   </si>
@@ -1047,7 +1045,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1088,7 +1086,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ar-EG"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1209,7 +1207,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ar-EG"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1817,7 +1815,7 @@
       </c>
       <c r="N3" s="24">
         <f>COUNTIFS(SRS!E2:E1047597,"Open")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O3" s="21"/>
       <c r="P3" s="21"/>
@@ -1893,7 +1891,7 @@
       </c>
       <c r="N5" s="24">
         <f>SUM(N3:N4)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
@@ -30080,7 +30078,7 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -30686,9 +30684,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -30807,11 +30805,17 @@
         <v>82</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="F5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="49.8" customHeight="1">
       <c r="A6" s="5" t="s">
@@ -30827,11 +30831,17 @@
         <v>83</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="F6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="60.6" customHeight="1">
       <c r="A7" s="5" t="s">
@@ -30847,11 +30857,17 @@
         <v>84</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="F7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="72" customHeight="1">
       <c r="A8" s="29" t="s">
@@ -30867,11 +30883,17 @@
         <v>88</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
+      <c r="F8" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="45" customHeight="1">
       <c r="A9" s="33" t="s">
@@ -30887,11 +30909,17 @@
         <v>89</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
+      <c r="F9" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1">
       <c r="E10" s="13"/>

--- a/Monitor and Control/Reviews.xlsx
+++ b/Monitor and Control/Reviews.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nadaf\Desktop\ITI\QA\QA_workshop\Monitor and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI Study\QA Project\TravelAdvisor\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A2688F-EF79-45F1-923F-16FD2E0B9177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92108674-4606-4E7D-B169-0B04DECA53E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMP" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="93">
   <si>
     <t>Review No.</t>
   </si>
@@ -331,6 +333,10 @@
   </si>
   <si>
     <t xml:space="preserve">Update fuction names </t>
+  </si>
+  <si>
+    <t>Rereviewed accoding to the new 
+requirments with no issures</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1092,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ar-EG"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1207,7 +1213,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ar-EG"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -29944,8 +29950,8 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -30037,9 +30043,15 @@
       <c r="A5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -30244,8 +30256,8 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -30324,22 +30336,38 @@
       <c r="F3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
       <c r="A4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>92</v>
+      </c>
       <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="F4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="43.5" customHeight="1">
       <c r="A5" s="15" t="s">
@@ -30684,7 +30712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>

--- a/Monitor and Control/Reviews.xlsx
+++ b/Monitor and Control/Reviews.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nadaf\Desktop\ITI\QA\QA_workshop\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9D04CB-805F-4666-89C4-E34A728FAFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5391FB71-4B78-4F9D-BCD4-3197AC0993BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMP" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="129">
   <si>
     <t>Review No.</t>
   </si>
@@ -449,6 +449,20 @@
   </si>
   <si>
     <t>All dates in constraints assigned in the time section are not correct.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  About us in the navigation bar is missed in 
+Layout_Add_Admin
+Layout_Add_Tour
+Layout_Add_User
+2. The name in the Layout_Add_Admin should be username
+3. Tour name is written wrong, Flight_Date is missed, end date is missed, Duration,  in the Layout_Add_Tour, Button should be added only.
+4. About us button in Tour 1 is redundant as it is already in the navigation bar. 
+5. Start date should bd end date.
+6. The rating is missed in Tour1 where user can insert his rating.
+7. Home is missed in the navigation bar in Home in layout_Home.
+8. Home for the user is missed as Layout.
+</t>
   </si>
 </sst>
 </file>
@@ -972,7 +986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1176,6 +1190,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1908,16 +1925,16 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="25.5" customHeight="1">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
       <c r="I2" s="26"/>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -2058,18 +2075,18 @@
       <c r="AA5" s="61"/>
     </row>
     <row r="6" spans="1:27" ht="37.5" customHeight="1">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78" t="s">
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
       <c r="I6" s="60"/>
       <c r="J6" s="60"/>
       <c r="K6" s="60"/>
@@ -2138,16 +2155,16 @@
       <c r="AA7" s="61"/>
     </row>
     <row r="8" spans="1:27" ht="37.5" customHeight="1">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
       <c r="I8" s="60"/>
       <c r="J8" s="60"/>
       <c r="K8" s="60"/>
@@ -2216,16 +2233,16 @@
       <c r="AA9" s="61"/>
     </row>
     <row r="10" spans="1:27" ht="37.5" customHeight="1">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
       <c r="I10" s="60"/>
       <c r="J10" s="60"/>
       <c r="K10" s="60"/>
@@ -3581,7 +3598,7 @@
       <c r="Z2" s="19"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="83" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="20" t="s">
@@ -3599,7 +3616,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
-      <c r="L3" s="85" t="s">
+      <c r="L3" s="86" t="s">
         <v>45</v>
       </c>
       <c r="M3" s="21" t="s">
@@ -3623,7 +3640,7 @@
       <c r="Z3" s="19"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="83"/>
+      <c r="A4" s="84"/>
       <c r="B4" s="20" t="s">
         <v>46</v>
       </c>
@@ -3639,7 +3656,7 @@
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
-      <c r="L4" s="86"/>
+      <c r="L4" s="87"/>
       <c r="M4" s="21" t="s">
         <v>46</v>
       </c>
@@ -3661,7 +3678,7 @@
       <c r="Z4" s="19"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" s="84"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="20" t="s">
         <v>47</v>
       </c>
@@ -3677,7 +3694,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
-      <c r="L5" s="87"/>
+      <c r="L5" s="88"/>
       <c r="M5" s="21" t="s">
         <v>47</v>
       </c>
@@ -31573,7 +31590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB107C2-CBBE-4F90-A398-7916335DFE6A}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -31716,8 +31733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891C4D3F-DDC9-49C8-96F1-9961B200D3E7}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -31752,7 +31769,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="31.8" customHeight="1">
       <c r="A2" s="46" t="s">
         <v>105</v>
       </c>
@@ -31772,7 +31789,7 @@
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="31.8" customHeight="1">
       <c r="A3" s="46" t="s">
         <v>106</v>
       </c>
@@ -32463,8 +32480,8 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -32550,7 +32567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1">
+    <row r="4" spans="1:8" ht="43.2" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>36</v>
       </c>
@@ -32576,17 +32593,25 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="43.5" customHeight="1">
+    <row r="5" spans="1:8" ht="409.2" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>128</v>
+      </c>
       <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
@@ -32919,7 +32944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -33072,18 +33097,18 @@
       <c r="I6" s="60"/>
     </row>
     <row r="7" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80" t="s">
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="82"/>
       <c r="I7" s="60" t="s">
         <v>117</v>
       </c>
@@ -33224,16 +33249,16 @@
       <c r="I12" s="60"/>
     </row>
     <row r="13" spans="1:9" ht="28.2" customHeight="1">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="81"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="82"/>
       <c r="I13" s="60" t="s">
         <v>117</v>
       </c>
@@ -33266,16 +33291,16 @@
       <c r="I14" s="60"/>
     </row>
     <row r="15" spans="1:9" ht="33" customHeight="1">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="81"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="82"/>
       <c r="I15" s="60"/>
     </row>
     <row r="16" spans="1:9" ht="28.2" customHeight="1">

--- a/Monitor and Control/Reviews.xlsx
+++ b/Monitor and Control/Reviews.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nadaf\Desktop\ITI\QA\QA_workshop\Monitor and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\QA Project\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5391FB71-4B78-4F9D-BCD4-3197AC0993BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="PMP" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
   <definedNames>
     <definedName name="Options">Options!$B$1:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="136">
   <si>
     <t>Review No.</t>
   </si>
@@ -464,11 +463,32 @@
 8. Home for the user is missed as Layout.
 </t>
   </si>
+  <si>
+    <t>TB_03</t>
+  </si>
+  <si>
+    <t>SIQ_11_Tour is repated twice at Customer_Requirement_04</t>
+  </si>
+  <si>
+    <t>08/5</t>
+  </si>
+  <si>
+    <t>TB_04</t>
+  </si>
+  <si>
+    <t>TB_05</t>
+  </si>
+  <si>
+    <t>Feedback removing is not applied at Customer_Requirement_05</t>
+  </si>
+  <si>
+    <t>SIQ_06_Add_User  is not related to  Customer_Requirement_09</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy"/>
   </numFmts>
@@ -589,7 +609,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -982,11 +1002,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1220,6 +1251,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1335,9 +1375,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-27D6-487A-AA22-0D6B554A5A49}"/>
                 </c:ext>
@@ -1369,9 +1407,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-27D6-487A-AA22-0D6B554A5A49}"/>
                 </c:ext>
@@ -1457,7 +1493,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ar-EG"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1578,7 +1614,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ar-EG"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1858,7 +1894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1866,15 +1902,15 @@
       <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="64.44140625" customWidth="1"/>
-    <col min="5" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" customWidth="1"/>
-    <col min="9" max="26" width="8.6640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="64.42578125" customWidth="1"/>
+    <col min="5" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="26" width="8.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="25.5" customHeight="1">
@@ -2372,7 +2408,7 @@
     <mergeCell ref="A10:H10"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E24" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E24">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -2382,20 +2418,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693EB218-C1D8-4EEC-B91D-4737533220EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="24.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8">
+    <row r="1" spans="1:8" ht="30">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -2421,7 +2457,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="41.4" customHeight="1">
+    <row r="2" spans="1:8" ht="41.45" customHeight="1">
       <c r="A2" s="46" t="s">
         <v>102</v>
       </c>
@@ -2491,7 +2527,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E5" xr:uid="{CB32F748-C54E-4EDD-A87E-0460FE4D6BA9}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E5">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -2500,14 +2536,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="14.25" customHeight="1">
@@ -3525,20 +3561,20 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="12" width="8.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" customWidth="1"/>
-    <col min="14" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -31587,20 +31623,20 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB107C2-CBBE-4F90-A398-7916335DFE6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8">
+    <row r="1" spans="1:9" ht="30">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -31648,7 +31684,7 @@
       <c r="H2" s="35"/>
       <c r="I2" s="33"/>
     </row>
-    <row r="3" spans="1:9" ht="57.6">
+    <row r="3" spans="1:9" ht="60">
       <c r="A3" s="46" t="s">
         <v>98</v>
       </c>
@@ -31721,7 +31757,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{E7E5512A-606D-4770-9933-CD648ADE2F36}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E4">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -31730,20 +31766,20 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891C4D3F-DDC9-49C8-96F1-9961B200D3E7}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="33.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8">
+    <row r="1" spans="1:8" ht="30">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -31769,7 +31805,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="31.8" customHeight="1">
+    <row r="2" spans="1:8" ht="31.9" customHeight="1">
       <c r="A2" s="46" t="s">
         <v>105</v>
       </c>
@@ -31789,7 +31825,7 @@
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
     </row>
-    <row r="3" spans="1:8" ht="31.8" customHeight="1">
+    <row r="3" spans="1:8" ht="31.9" customHeight="1">
       <c r="A3" s="46" t="s">
         <v>106</v>
       </c>
@@ -31808,56 +31844,123 @@
       <c r="F3" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="52" t="s">
-        <v>109</v>
+      <c r="G3" s="55" t="s">
+        <v>131</v>
       </c>
       <c r="H3" s="49" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="46"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+    <row r="4" spans="1:8" ht="30">
+      <c r="A4" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="89">
+        <v>44690</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>130</v>
+      </c>
       <c r="E4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="F4" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="90">
+        <v>44690</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30">
+      <c r="A5" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="89">
+        <v>44690</v>
+      </c>
+      <c r="D5" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="90">
+        <v>44690</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30">
+      <c r="A6" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="89">
+        <v>44690</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="90">
+        <v>44690</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{6396AF7A-EFEF-4F01-8DB0-266011A077AE}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E6">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3753E40-BA73-4C99-A3AD-7F839E90F709}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="29"/>
-    <col min="4" max="4" width="20.6640625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="29" customWidth="1"/>
+    <col min="1" max="3" width="8.85546875" style="29"/>
+    <col min="4" max="4" width="20.7109375" style="29" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="29" customWidth="1"/>
     <col min="6" max="6" width="10" style="29" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" style="29" customWidth="1"/>
-    <col min="8" max="17" width="8.88671875" style="29"/>
-    <col min="18" max="19" width="8.88671875" style="29" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="29"/>
+    <col min="7" max="7" width="13.85546875" style="29" customWidth="1"/>
+    <col min="8" max="17" width="8.85546875" style="29"/>
+    <col min="18" max="19" width="8.85546875" style="29" customWidth="1"/>
+    <col min="20" max="16384" width="8.85546875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -31885,7 +31988,7 @@
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
     </row>
-    <row r="2" spans="1:10" ht="34.200000000000003" customHeight="1">
+    <row r="2" spans="1:10" ht="34.15" customHeight="1">
       <c r="A2" s="42" t="s">
         <v>84</v>
       </c>
@@ -31913,7 +32016,7 @@
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
     </row>
-    <row r="3" spans="1:10" ht="29.4" customHeight="1">
+    <row r="3" spans="1:10" ht="29.45" customHeight="1">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -31925,7 +32028,7 @@
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
     </row>
-    <row r="4" spans="1:10" ht="29.4" customHeight="1">
+    <row r="4" spans="1:10" ht="29.45" customHeight="1">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -31937,7 +32040,7 @@
       <c r="I4" s="36"/>
       <c r="J4" s="36"/>
     </row>
-    <row r="5" spans="1:10" ht="29.4" customHeight="1">
+    <row r="5" spans="1:10" ht="29.45" customHeight="1">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -31949,7 +32052,7 @@
       <c r="I5" s="36"/>
       <c r="J5" s="36"/>
     </row>
-    <row r="6" spans="1:10" ht="28.2" customHeight="1">
+    <row r="6" spans="1:10" ht="28.15" customHeight="1">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -31988,7 +32091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -31998,12 +32101,12 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32055,7 +32158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4">
+    <row r="3" spans="1:8">
       <c r="A3" s="44" t="s">
         <v>92</v>
       </c>
@@ -32075,7 +32178,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="14.4">
+    <row r="4" spans="1:8">
       <c r="A4" s="44" t="s">
         <v>93</v>
       </c>
@@ -32095,7 +32198,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="43.2">
+    <row r="5" spans="1:8" ht="45">
       <c r="A5" s="44" t="s">
         <v>94</v>
       </c>
@@ -32121,7 +32224,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.4">
+    <row r="6" spans="1:8">
       <c r="A6" s="44" t="s">
         <v>95</v>
       </c>
@@ -32135,7 +32238,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" thickBot="1">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1">
       <c r="A7" s="45" t="s">
         <v>96</v>
       </c>
@@ -32151,7 +32254,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -32160,7 +32263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -32170,9 +32273,9 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="61.6640625" customWidth="1"/>
+    <col min="4" max="4" width="61.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32.25" customHeight="1">
@@ -32308,7 +32411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -32318,12 +32421,12 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="41.33203125" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32465,7 +32568,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -32474,7 +32577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -32484,12 +32587,12 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32567,7 +32670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="43.2" customHeight="1">
+    <row r="4" spans="1:8" ht="43.15" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>36</v>
       </c>
@@ -32593,7 +32696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="409.2" customHeight="1">
+    <row r="5" spans="1:8" ht="409.15" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>37</v>
       </c>
@@ -32645,7 +32748,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -32654,7 +32757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -32664,14 +32767,14 @@
       <selection sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="49.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1"/>
-    <col min="4" max="4" width="34.5546875" customWidth="1"/>
+    <col min="1" max="1" width="49.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32697,7 +32800,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4">
+    <row r="2" spans="1:8">
       <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
@@ -32789,7 +32892,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -32798,7 +32901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -32808,13 +32911,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="49.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="1" max="1" width="49.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32840,7 +32943,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4">
+    <row r="2" spans="1:8">
       <c r="A2" s="12" t="s">
         <v>61</v>
       </c>
@@ -32932,7 +33035,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -32941,21 +33044,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="64.44140625" customWidth="1"/>
-    <col min="5" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="64.42578125" customWidth="1"/>
+    <col min="5" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1">
@@ -33113,7 +33216,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="86.4" customHeight="1">
+    <row r="8" spans="1:9" ht="86.45" customHeight="1">
       <c r="A8" s="26" t="s">
         <v>69</v>
       </c>
@@ -33140,7 +33243,7 @@
       </c>
       <c r="I8" s="60"/>
     </row>
-    <row r="9" spans="1:9" ht="49.8" customHeight="1">
+    <row r="9" spans="1:9" ht="49.9" customHeight="1">
       <c r="A9" s="26" t="s">
         <v>73</v>
       </c>
@@ -33221,7 +33324,7 @@
       </c>
       <c r="I11" s="60"/>
     </row>
-    <row r="12" spans="1:9" ht="43.2">
+    <row r="12" spans="1:9" ht="45">
       <c r="A12" s="26" t="s">
         <v>78</v>
       </c>
@@ -33248,7 +33351,7 @@
       </c>
       <c r="I12" s="60"/>
     </row>
-    <row r="13" spans="1:9" ht="28.2" customHeight="1">
+    <row r="13" spans="1:9" ht="28.15" customHeight="1">
       <c r="A13" s="80" t="s">
         <v>115</v>
       </c>
@@ -33263,7 +33366,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.8">
+    <row r="14" spans="1:9" ht="30">
       <c r="A14" s="26" t="s">
         <v>99</v>
       </c>
@@ -33303,7 +33406,7 @@
       <c r="H15" s="82"/>
       <c r="I15" s="60"/>
     </row>
-    <row r="16" spans="1:9" ht="28.2" customHeight="1">
+    <row r="16" spans="1:9" ht="28.15" customHeight="1">
       <c r="A16" s="50" t="s">
         <v>118</v>
       </c>
@@ -33373,7 +33476,7 @@
     <mergeCell ref="A15:H15"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E4 E6:E26" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E4 E6:E26">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>

--- a/Monitor and Control/Reviews.xlsx
+++ b/Monitor and Control/Reviews.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nadaf\Desktop\ITI\QA\QA_workshop\Monitor and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\QA Project\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5391FB71-4B78-4F9D-BCD4-3197AC0993BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="PMP" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
   <definedNames>
     <definedName name="Options">Options!$B$1:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="136">
   <si>
     <t>Review No.</t>
   </si>
@@ -464,11 +463,32 @@
 8. Home for the user is missed as Layout.
 </t>
   </si>
+  <si>
+    <t>TB_03</t>
+  </si>
+  <si>
+    <t>SIQ_11_Tour is repated twice at Customer_Requirement_04</t>
+  </si>
+  <si>
+    <t>08/5</t>
+  </si>
+  <si>
+    <t>TB_04</t>
+  </si>
+  <si>
+    <t>TB_05</t>
+  </si>
+  <si>
+    <t>Feedback removing is not applied at Customer_Requirement_05</t>
+  </si>
+  <si>
+    <t>SIQ_06_Add_User  is not related to  Customer_Requirement_09</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy"/>
   </numFmts>
@@ -589,7 +609,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -982,11 +1002,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1220,6 +1251,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1335,9 +1375,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-27D6-487A-AA22-0D6B554A5A49}"/>
                 </c:ext>
@@ -1369,9 +1407,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-27D6-487A-AA22-0D6B554A5A49}"/>
                 </c:ext>
@@ -1457,7 +1493,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ar-EG"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1578,7 +1614,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ar-EG"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1858,7 +1894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1866,15 +1902,15 @@
       <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="64.44140625" customWidth="1"/>
-    <col min="5" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" customWidth="1"/>
-    <col min="9" max="26" width="8.6640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="64.42578125" customWidth="1"/>
+    <col min="5" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="26" width="8.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="25.5" customHeight="1">
@@ -2372,7 +2408,7 @@
     <mergeCell ref="A10:H10"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E24" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E24">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -2382,20 +2418,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693EB218-C1D8-4EEC-B91D-4737533220EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="24.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8">
+    <row r="1" spans="1:8" ht="30">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -2421,7 +2457,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="41.4" customHeight="1">
+    <row r="2" spans="1:8" ht="41.45" customHeight="1">
       <c r="A2" s="46" t="s">
         <v>102</v>
       </c>
@@ -2491,7 +2527,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E5" xr:uid="{CB32F748-C54E-4EDD-A87E-0460FE4D6BA9}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E5">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -2500,14 +2536,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="14.25" customHeight="1">
@@ -3525,20 +3561,20 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="12" width="8.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" customWidth="1"/>
-    <col min="14" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -31587,20 +31623,20 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB107C2-CBBE-4F90-A398-7916335DFE6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8">
+    <row r="1" spans="1:9" ht="30">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -31648,7 +31684,7 @@
       <c r="H2" s="35"/>
       <c r="I2" s="33"/>
     </row>
-    <row r="3" spans="1:9" ht="57.6">
+    <row r="3" spans="1:9" ht="60">
       <c r="A3" s="46" t="s">
         <v>98</v>
       </c>
@@ -31721,7 +31757,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{E7E5512A-606D-4770-9933-CD648ADE2F36}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E4">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -31730,20 +31766,20 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891C4D3F-DDC9-49C8-96F1-9961B200D3E7}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="33.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8">
+    <row r="1" spans="1:8" ht="30">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -31769,7 +31805,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="31.8" customHeight="1">
+    <row r="2" spans="1:8" ht="31.9" customHeight="1">
       <c r="A2" s="46" t="s">
         <v>105</v>
       </c>
@@ -31789,7 +31825,7 @@
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
     </row>
-    <row r="3" spans="1:8" ht="31.8" customHeight="1">
+    <row r="3" spans="1:8" ht="31.9" customHeight="1">
       <c r="A3" s="46" t="s">
         <v>106</v>
       </c>
@@ -31808,56 +31844,123 @@
       <c r="F3" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="52" t="s">
-        <v>109</v>
+      <c r="G3" s="55" t="s">
+        <v>131</v>
       </c>
       <c r="H3" s="49" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="46"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+    <row r="4" spans="1:8" ht="30">
+      <c r="A4" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="89">
+        <v>44690</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>130</v>
+      </c>
       <c r="E4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="F4" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="90">
+        <v>44690</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30">
+      <c r="A5" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="89">
+        <v>44690</v>
+      </c>
+      <c r="D5" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="90">
+        <v>44690</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30">
+      <c r="A6" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="89">
+        <v>44690</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="90">
+        <v>44690</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{6396AF7A-EFEF-4F01-8DB0-266011A077AE}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E6">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3753E40-BA73-4C99-A3AD-7F839E90F709}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="29"/>
-    <col min="4" max="4" width="20.6640625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="29" customWidth="1"/>
+    <col min="1" max="3" width="8.85546875" style="29"/>
+    <col min="4" max="4" width="20.7109375" style="29" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="29" customWidth="1"/>
     <col min="6" max="6" width="10" style="29" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" style="29" customWidth="1"/>
-    <col min="8" max="17" width="8.88671875" style="29"/>
-    <col min="18" max="19" width="8.88671875" style="29" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="29"/>
+    <col min="7" max="7" width="13.85546875" style="29" customWidth="1"/>
+    <col min="8" max="17" width="8.85546875" style="29"/>
+    <col min="18" max="19" width="8.85546875" style="29" customWidth="1"/>
+    <col min="20" max="16384" width="8.85546875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -31885,7 +31988,7 @@
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
     </row>
-    <row r="2" spans="1:10" ht="34.200000000000003" customHeight="1">
+    <row r="2" spans="1:10" ht="34.15" customHeight="1">
       <c r="A2" s="42" t="s">
         <v>84</v>
       </c>
@@ -31913,7 +32016,7 @@
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
     </row>
-    <row r="3" spans="1:10" ht="29.4" customHeight="1">
+    <row r="3" spans="1:10" ht="29.45" customHeight="1">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -31925,7 +32028,7 @@
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
     </row>
-    <row r="4" spans="1:10" ht="29.4" customHeight="1">
+    <row r="4" spans="1:10" ht="29.45" customHeight="1">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -31937,7 +32040,7 @@
       <c r="I4" s="36"/>
       <c r="J4" s="36"/>
     </row>
-    <row r="5" spans="1:10" ht="29.4" customHeight="1">
+    <row r="5" spans="1:10" ht="29.45" customHeight="1">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -31949,7 +32052,7 @@
       <c r="I5" s="36"/>
       <c r="J5" s="36"/>
     </row>
-    <row r="6" spans="1:10" ht="28.2" customHeight="1">
+    <row r="6" spans="1:10" ht="28.15" customHeight="1">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -31988,7 +32091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -31998,12 +32101,12 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32055,7 +32158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4">
+    <row r="3" spans="1:8">
       <c r="A3" s="44" t="s">
         <v>92</v>
       </c>
@@ -32075,7 +32178,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="14.4">
+    <row r="4" spans="1:8">
       <c r="A4" s="44" t="s">
         <v>93</v>
       </c>
@@ -32095,7 +32198,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="43.2">
+    <row r="5" spans="1:8" ht="45">
       <c r="A5" s="44" t="s">
         <v>94</v>
       </c>
@@ -32121,7 +32224,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.4">
+    <row r="6" spans="1:8">
       <c r="A6" s="44" t="s">
         <v>95</v>
       </c>
@@ -32135,7 +32238,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" thickBot="1">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1">
       <c r="A7" s="45" t="s">
         <v>96</v>
       </c>
@@ -32151,7 +32254,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -32160,7 +32263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -32170,9 +32273,9 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="61.6640625" customWidth="1"/>
+    <col min="4" max="4" width="61.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32.25" customHeight="1">
@@ -32308,7 +32411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -32318,12 +32421,12 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="41.33203125" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32465,7 +32568,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -32474,7 +32577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -32484,12 +32587,12 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32567,7 +32670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="43.2" customHeight="1">
+    <row r="4" spans="1:8" ht="43.15" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>36</v>
       </c>
@@ -32593,7 +32696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="409.2" customHeight="1">
+    <row r="5" spans="1:8" ht="409.15" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>37</v>
       </c>
@@ -32645,7 +32748,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -32654,7 +32757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -32664,14 +32767,14 @@
       <selection sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="49.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1"/>
-    <col min="4" max="4" width="34.5546875" customWidth="1"/>
+    <col min="1" max="1" width="49.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32697,7 +32800,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4">
+    <row r="2" spans="1:8">
       <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
@@ -32789,7 +32892,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -32798,7 +32901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -32808,13 +32911,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="49.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="1" max="1" width="49.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32840,7 +32943,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4">
+    <row r="2" spans="1:8">
       <c r="A2" s="12" t="s">
         <v>61</v>
       </c>
@@ -32932,7 +33035,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -32941,21 +33044,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="64.44140625" customWidth="1"/>
-    <col min="5" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="64.42578125" customWidth="1"/>
+    <col min="5" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1">
@@ -33113,7 +33216,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="86.4" customHeight="1">
+    <row r="8" spans="1:9" ht="86.45" customHeight="1">
       <c r="A8" s="26" t="s">
         <v>69</v>
       </c>
@@ -33140,7 +33243,7 @@
       </c>
       <c r="I8" s="60"/>
     </row>
-    <row r="9" spans="1:9" ht="49.8" customHeight="1">
+    <row r="9" spans="1:9" ht="49.9" customHeight="1">
       <c r="A9" s="26" t="s">
         <v>73</v>
       </c>
@@ -33221,7 +33324,7 @@
       </c>
       <c r="I11" s="60"/>
     </row>
-    <row r="12" spans="1:9" ht="43.2">
+    <row r="12" spans="1:9" ht="45">
       <c r="A12" s="26" t="s">
         <v>78</v>
       </c>
@@ -33248,7 +33351,7 @@
       </c>
       <c r="I12" s="60"/>
     </row>
-    <row r="13" spans="1:9" ht="28.2" customHeight="1">
+    <row r="13" spans="1:9" ht="28.15" customHeight="1">
       <c r="A13" s="80" t="s">
         <v>115</v>
       </c>
@@ -33263,7 +33366,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.8">
+    <row r="14" spans="1:9" ht="30">
       <c r="A14" s="26" t="s">
         <v>99</v>
       </c>
@@ -33303,7 +33406,7 @@
       <c r="H15" s="82"/>
       <c r="I15" s="60"/>
     </row>
-    <row r="16" spans="1:9" ht="28.2" customHeight="1">
+    <row r="16" spans="1:9" ht="28.15" customHeight="1">
       <c r="A16" s="50" t="s">
         <v>118</v>
       </c>
@@ -33373,7 +33476,7 @@
     <mergeCell ref="A15:H15"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E4 E6:E26" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E4 E6:E26">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>

--- a/Monitor and Control/Reviews.xlsx
+++ b/Monitor and Control/Reviews.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\QA Project\Monitor and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI Study\QA Project\TravelAdvisor\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B0E8B2-94A4-4E82-9EB2-A9398B5E4ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMP" sheetId="1" r:id="rId1"/>
@@ -26,16 +27,19 @@
     <sheet name="Progress_Chart" sheetId="10" r:id="rId12"/>
     <sheet name="Scope Statment" sheetId="13" r:id="rId13"/>
     <sheet name="Tracability" sheetId="16" r:id="rId14"/>
+    <sheet name="Issue managment" sheetId="17" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="Options">Options!$B$1:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -45,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="138">
   <si>
     <t>Review No.</t>
   </si>
@@ -484,11 +488,17 @@
   <si>
     <t>SIQ_06_Add_User  is not related to  Customer_Requirement_09</t>
   </si>
+  <si>
+    <t>5/10/2022</t>
+  </si>
+  <si>
+    <t>Update esclation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy"/>
   </numFmts>
@@ -1226,6 +1236,15 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1251,15 +1270,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1375,7 +1385,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-27D6-487A-AA22-0D6B554A5A49}"/>
                 </c:ext>
@@ -1407,7 +1419,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-27D6-487A-AA22-0D6B554A5A49}"/>
                 </c:ext>
@@ -1894,23 +1908,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="64.42578125" customWidth="1"/>
-    <col min="5" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="26" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="64.44140625" customWidth="1"/>
+    <col min="5" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="26" width="8.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="25.5" customHeight="1">
@@ -1961,16 +1975,16 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="25.5" customHeight="1">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
       <c r="I2" s="26"/>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -2111,18 +2125,18 @@
       <c r="AA5" s="61"/>
     </row>
     <row r="6" spans="1:27" ht="37.5" customHeight="1">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79" t="s">
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
       <c r="I6" s="60"/>
       <c r="J6" s="60"/>
       <c r="K6" s="60"/>
@@ -2191,16 +2205,16 @@
       <c r="AA7" s="61"/>
     </row>
     <row r="8" spans="1:27" ht="37.5" customHeight="1">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
       <c r="I8" s="60"/>
       <c r="J8" s="60"/>
       <c r="K8" s="60"/>
@@ -2269,16 +2283,16 @@
       <c r="AA9" s="61"/>
     </row>
     <row r="10" spans="1:27" ht="37.5" customHeight="1">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
       <c r="I10" s="60"/>
       <c r="J10" s="60"/>
       <c r="K10" s="60"/>
@@ -2346,15 +2360,83 @@
       <c r="Z11" s="60"/>
       <c r="AA11" s="61"/>
     </row>
-    <row r="12" spans="1:27" ht="14.25" customHeight="1">
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:27" ht="14.25" customHeight="1">
-      <c r="E13" s="10"/>
-      <c r="G13" s="11"/>
+    <row r="12" spans="1:27" ht="37.5" customHeight="1">
+      <c r="A12" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="37.5" customHeight="1">
+      <c r="A13" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="61"/>
     </row>
     <row r="14" spans="1:27" ht="14.25" customHeight="1">
       <c r="E14" s="10"/>
@@ -2401,14 +2483,15 @@
       <c r="G24" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A12:H12"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E24">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E24" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -2418,20 +2501,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
+    <row r="1" spans="1:8" ht="28.8">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -2457,7 +2540,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="41.45" customHeight="1">
+    <row r="2" spans="1:8" ht="41.4" customHeight="1">
       <c r="A2" s="46" t="s">
         <v>102</v>
       </c>
@@ -2527,7 +2610,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E5">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E5" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -2536,14 +2619,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="14.25" customHeight="1">
@@ -3561,20 +3644,20 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="12" width="8.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="1"/>
-    <col min="14" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" customWidth="1"/>
+    <col min="14" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -3634,7 +3717,7 @@
       <c r="Z2" s="19"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="86" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="20" t="s">
@@ -3652,7 +3735,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
-      <c r="L3" s="86" t="s">
+      <c r="L3" s="89" t="s">
         <v>45</v>
       </c>
       <c r="M3" s="21" t="s">
@@ -3676,7 +3759,7 @@
       <c r="Z3" s="19"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="84"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="20" t="s">
         <v>46</v>
       </c>
@@ -3692,7 +3775,7 @@
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
-      <c r="L4" s="87"/>
+      <c r="L4" s="90"/>
       <c r="M4" s="21" t="s">
         <v>46</v>
       </c>
@@ -3714,7 +3797,7 @@
       <c r="Z4" s="19"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" s="85"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="20" t="s">
         <v>47</v>
       </c>
@@ -3730,7 +3813,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
-      <c r="L5" s="88"/>
+      <c r="L5" s="91"/>
       <c r="M5" s="21" t="s">
         <v>47</v>
       </c>
@@ -31623,20 +31706,20 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <row r="1" spans="1:9" ht="28.8">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -31684,7 +31767,7 @@
       <c r="H2" s="35"/>
       <c r="I2" s="33"/>
     </row>
-    <row r="3" spans="1:9" ht="60">
+    <row r="3" spans="1:9" ht="57.6">
       <c r="A3" s="46" t="s">
         <v>98</v>
       </c>
@@ -31757,7 +31840,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -31766,20 +31849,20 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="43.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
+    <row r="1" spans="1:8" ht="28.8">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -31805,7 +31888,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="31.9" customHeight="1">
+    <row r="2" spans="1:8" ht="31.95" customHeight="1">
       <c r="A2" s="46" t="s">
         <v>105</v>
       </c>
@@ -31825,7 +31908,7 @@
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
     </row>
-    <row r="3" spans="1:8" ht="31.9" customHeight="1">
+    <row r="3" spans="1:8" ht="31.95" customHeight="1">
       <c r="A3" s="46" t="s">
         <v>106</v>
       </c>
@@ -31851,14 +31934,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30">
+    <row r="4" spans="1:8" ht="28.8">
       <c r="A4" s="46" t="s">
         <v>129</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="89">
+      <c r="C4" s="78">
         <v>44690</v>
       </c>
       <c r="D4" s="25" t="s">
@@ -31870,24 +31953,24 @@
       <c r="F4" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="90">
+      <c r="G4" s="79">
         <v>44690</v>
       </c>
       <c r="H4" s="49" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30">
+    <row r="5" spans="1:8" ht="28.8">
       <c r="A5" s="46" t="s">
         <v>132</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="89">
+      <c r="C5" s="78">
         <v>44690</v>
       </c>
-      <c r="D5" s="91" t="s">
+      <c r="D5" s="80" t="s">
         <v>134</v>
       </c>
       <c r="E5" s="47" t="s">
@@ -31896,24 +31979,24 @@
       <c r="F5" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="90">
+      <c r="G5" s="79">
         <v>44690</v>
       </c>
       <c r="H5" s="49" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30">
+    <row r="6" spans="1:8" ht="28.8">
       <c r="A6" s="46" t="s">
         <v>133</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="89">
+      <c r="C6" s="78">
         <v>44690</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="80" t="s">
         <v>135</v>
       </c>
       <c r="E6" s="47" t="s">
@@ -31922,7 +32005,7 @@
       <c r="F6" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="90">
+      <c r="G6" s="79">
         <v>44690</v>
       </c>
       <c r="H6" s="49" t="s">
@@ -31931,7 +32014,104 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E6">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{00000000-0002-0000-0D00-000000000000}">
+      <formula1>Options</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04B1DF2-7CE8-4C79-ACD7-56C61304D32C}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="43.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="28.8">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="31.95" customHeight="1">
+      <c r="A2" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="48">
+        <v>44689</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="35">
+        <v>44691</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="31.95" customHeight="1">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="49"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="46"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="49"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{50F4BF1C-4EB8-476A-96AA-93876377FAA4}">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -31941,26 +32121,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="8.85546875" style="29"/>
-    <col min="4" max="4" width="20.7109375" style="29" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="29" customWidth="1"/>
+    <col min="1" max="3" width="8.88671875" style="29"/>
+    <col min="4" max="4" width="20.6640625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="29" customWidth="1"/>
     <col min="6" max="6" width="10" style="29" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="29" customWidth="1"/>
-    <col min="8" max="17" width="8.85546875" style="29"/>
-    <col min="18" max="19" width="8.85546875" style="29" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="29"/>
+    <col min="7" max="7" width="13.88671875" style="29" customWidth="1"/>
+    <col min="8" max="17" width="8.88671875" style="29"/>
+    <col min="18" max="19" width="8.88671875" style="29" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:10" ht="28.8">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -31988,7 +32168,7 @@
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
     </row>
-    <row r="2" spans="1:10" ht="34.15" customHeight="1">
+    <row r="2" spans="1:10" ht="34.200000000000003" customHeight="1">
       <c r="A2" s="42" t="s">
         <v>84</v>
       </c>
@@ -32016,7 +32196,7 @@
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
     </row>
-    <row r="3" spans="1:10" ht="29.45" customHeight="1">
+    <row r="3" spans="1:10" ht="29.4" customHeight="1">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -32028,7 +32208,7 @@
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
     </row>
-    <row r="4" spans="1:10" ht="29.45" customHeight="1">
+    <row r="4" spans="1:10" ht="29.4" customHeight="1">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -32040,7 +32220,7 @@
       <c r="I4" s="36"/>
       <c r="J4" s="36"/>
     </row>
-    <row r="5" spans="1:10" ht="29.45" customHeight="1">
+    <row r="5" spans="1:10" ht="29.4" customHeight="1">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -32052,7 +32232,7 @@
       <c r="I5" s="36"/>
       <c r="J5" s="36"/>
     </row>
-    <row r="6" spans="1:10" ht="28.15" customHeight="1">
+    <row r="6" spans="1:10" ht="28.2" customHeight="1">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -32091,7 +32271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -32101,12 +32281,12 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32158,7 +32338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="14.4">
       <c r="A3" s="44" t="s">
         <v>92</v>
       </c>
@@ -32178,7 +32358,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="14.4">
       <c r="A4" s="44" t="s">
         <v>93</v>
       </c>
@@ -32198,7 +32378,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="45">
+    <row r="5" spans="1:8" ht="43.2">
       <c r="A5" s="44" t="s">
         <v>94</v>
       </c>
@@ -32224,7 +32404,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="14.4">
       <c r="A6" s="44" t="s">
         <v>95</v>
       </c>
@@ -32238,7 +32418,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1">
+    <row r="7" spans="1:8" thickBot="1">
       <c r="A7" s="45" t="s">
         <v>96</v>
       </c>
@@ -32254,7 +32434,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -32263,7 +32443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -32273,9 +32453,9 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="61.7109375" customWidth="1"/>
+    <col min="4" max="4" width="61.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32.25" customHeight="1">
@@ -32411,7 +32591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -32421,12 +32601,12 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="41.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32568,7 +32748,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -32577,7 +32757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -32587,12 +32767,12 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32670,7 +32850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="43.15" customHeight="1">
+    <row r="4" spans="1:8" ht="43.2" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>36</v>
       </c>
@@ -32696,7 +32876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="409.15" customHeight="1">
+    <row r="5" spans="1:8" ht="409.2" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>37</v>
       </c>
@@ -32748,7 +32928,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -32757,7 +32937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -32767,14 +32947,14 @@
       <selection sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="49.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="49.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32800,7 +32980,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="14.4">
       <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
@@ -32892,7 +33072,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -32901,7 +33081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -32911,13 +33091,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="49.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="49.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32943,7 +33123,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="14.4">
       <c r="A2" s="12" t="s">
         <v>61</v>
       </c>
@@ -33035,7 +33215,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -33044,21 +33224,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="64.42578125" customWidth="1"/>
-    <col min="5" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="64.44140625" customWidth="1"/>
+    <col min="5" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1">
@@ -33200,23 +33380,23 @@
       <c r="I6" s="60"/>
     </row>
     <row r="7" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81" t="s">
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="82"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="85"/>
       <c r="I7" s="60" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="86.45" customHeight="1">
+    <row r="8" spans="1:9" ht="86.4" customHeight="1">
       <c r="A8" s="26" t="s">
         <v>69</v>
       </c>
@@ -33243,7 +33423,7 @@
       </c>
       <c r="I8" s="60"/>
     </row>
-    <row r="9" spans="1:9" ht="49.9" customHeight="1">
+    <row r="9" spans="1:9" ht="49.95" customHeight="1">
       <c r="A9" s="26" t="s">
         <v>73</v>
       </c>
@@ -33324,7 +33504,7 @@
       </c>
       <c r="I11" s="60"/>
     </row>
-    <row r="12" spans="1:9" ht="45">
+    <row r="12" spans="1:9" ht="43.2">
       <c r="A12" s="26" t="s">
         <v>78</v>
       </c>
@@ -33351,22 +33531,22 @@
       </c>
       <c r="I12" s="60"/>
     </row>
-    <row r="13" spans="1:9" ht="28.15" customHeight="1">
-      <c r="A13" s="80" t="s">
+    <row r="13" spans="1:9" ht="28.2" customHeight="1">
+      <c r="A13" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="82"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="85"/>
       <c r="I13" s="60" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30">
+    <row r="14" spans="1:9" ht="28.8">
       <c r="A14" s="26" t="s">
         <v>99</v>
       </c>
@@ -33394,19 +33574,19 @@
       <c r="I14" s="60"/>
     </row>
     <row r="15" spans="1:9" ht="33" customHeight="1">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="82"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="85"/>
       <c r="I15" s="60"/>
     </row>
-    <row r="16" spans="1:9" ht="28.15" customHeight="1">
+    <row r="16" spans="1:9" ht="28.2" customHeight="1">
       <c r="A16" s="50" t="s">
         <v>118</v>
       </c>
@@ -33476,7 +33656,7 @@
     <mergeCell ref="A15:H15"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E4 E6:E26">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E4 E6:E26" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>

--- a/Monitor and Control/Reviews.xlsx
+++ b/Monitor and Control/Reviews.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI Study\QA Project\TravelAdvisor\Monitor and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ossay\Downloads\New folder\TravelAdvisor\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B0E8B2-94A4-4E82-9EB2-A9398B5E4ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6E8D5F-AE94-4687-A47F-4984B208AD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMP" sheetId="1" r:id="rId1"/>
@@ -28,18 +28,17 @@
     <sheet name="Scope Statment" sheetId="13" r:id="rId13"/>
     <sheet name="Tracability" sheetId="16" r:id="rId14"/>
     <sheet name="Issue managment" sheetId="17" r:id="rId15"/>
+    <sheet name="DataBase" sheetId="18" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="Options">Options!$B$1:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="141">
   <si>
     <t>Review No.</t>
   </si>
@@ -494,6 +493,15 @@
   <si>
     <t>Update esclation</t>
   </si>
+  <si>
+    <t>DB_01</t>
+  </si>
+  <si>
+    <t>Osama</t>
+  </si>
+  <si>
+    <t>Data types in database is not valid</t>
+  </si>
 </sst>
 </file>
 
@@ -619,7 +627,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1012,22 +1020,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1242,7 +1239,25 @@
     <xf numFmtId="16" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1916,15 +1931,15 @@
       <selection pane="bottomLeft" activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="64.44140625" customWidth="1"/>
-    <col min="5" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="26" width="8.6640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="64.42578125" customWidth="1"/>
+    <col min="5" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="26" width="8.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="25.5" customHeight="1">
@@ -1975,16 +1990,16 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="25.5" customHeight="1">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
       <c r="I2" s="26"/>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -2125,18 +2140,18 @@
       <c r="AA5" s="61"/>
     </row>
     <row r="6" spans="1:27" ht="37.5" customHeight="1">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82" t="s">
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
       <c r="I6" s="60"/>
       <c r="J6" s="60"/>
       <c r="K6" s="60"/>
@@ -2205,16 +2220,16 @@
       <c r="AA7" s="61"/>
     </row>
     <row r="8" spans="1:27" ht="37.5" customHeight="1">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
       <c r="I8" s="60"/>
       <c r="J8" s="60"/>
       <c r="K8" s="60"/>
@@ -2283,16 +2298,16 @@
       <c r="AA9" s="61"/>
     </row>
     <row r="10" spans="1:27" ht="37.5" customHeight="1">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
       <c r="I10" s="60"/>
       <c r="J10" s="60"/>
       <c r="K10" s="60"/>
@@ -2361,16 +2376,16 @@
       <c r="AA11" s="61"/>
     </row>
     <row r="12" spans="1:27" ht="37.5" customHeight="1">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
       <c r="I12" s="60"/>
       <c r="J12" s="60"/>
       <c r="K12" s="60"/>
@@ -2508,13 +2523,13 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="24.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8">
+    <row r="1" spans="1:8" ht="30">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -2540,7 +2555,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="41.4" customHeight="1">
+    <row r="2" spans="1:8" ht="41.45" customHeight="1">
       <c r="A2" s="46" t="s">
         <v>102</v>
       </c>
@@ -2624,9 +2639,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="14.25" customHeight="1">
@@ -3648,16 +3663,16 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="12" width="8.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" customWidth="1"/>
-    <col min="14" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -3717,7 +3732,7 @@
       <c r="Z2" s="19"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="92" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="20" t="s">
@@ -3735,7 +3750,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
-      <c r="L3" s="89" t="s">
+      <c r="L3" s="95" t="s">
         <v>45</v>
       </c>
       <c r="M3" s="21" t="s">
@@ -3759,7 +3774,7 @@
       <c r="Z3" s="19"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="87"/>
+      <c r="A4" s="93"/>
       <c r="B4" s="20" t="s">
         <v>46</v>
       </c>
@@ -3775,7 +3790,7 @@
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
-      <c r="L4" s="90"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="21" t="s">
         <v>46</v>
       </c>
@@ -3797,7 +3812,7 @@
       <c r="Z4" s="19"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" s="88"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="20" t="s">
         <v>47</v>
       </c>
@@ -3813,7 +3828,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
-      <c r="L5" s="91"/>
+      <c r="L5" s="97"/>
       <c r="M5" s="21" t="s">
         <v>47</v>
       </c>
@@ -31710,16 +31725,16 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8">
+    <row r="1" spans="1:9" ht="30">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -31767,7 +31782,7 @@
       <c r="H2" s="35"/>
       <c r="I2" s="33"/>
     </row>
-    <row r="3" spans="1:9" ht="57.6">
+    <row r="3" spans="1:9" ht="60">
       <c r="A3" s="46" t="s">
         <v>98</v>
       </c>
@@ -31853,162 +31868,162 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="43.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:8" ht="30">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="80" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="31.95" customHeight="1">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:8" ht="31.9" customHeight="1">
+      <c r="A2" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-    </row>
-    <row r="3" spans="1:8" ht="31.95" customHeight="1">
-      <c r="A3" s="46" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+    </row>
+    <row r="3" spans="1:8" ht="31.9" customHeight="1">
+      <c r="A3" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="84" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.8">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:8" ht="30">
+      <c r="A4" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="78">
+      <c r="C4" s="85">
         <v>44690</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="79">
+      <c r="G4" s="85">
         <v>44690</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="84" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.8">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:8" ht="30">
+      <c r="A5" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="78">
+      <c r="C5" s="85">
         <v>44690</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="79">
+      <c r="G5" s="85">
         <v>44690</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="84" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.8">
-      <c r="A6" s="46" t="s">
+    <row r="6" spans="1:8" ht="30">
+      <c r="A6" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="78">
+      <c r="C6" s="85">
         <v>44690</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="79">
+      <c r="G6" s="85">
         <v>44690</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="84" t="s">
         <v>10</v>
       </c>
     </row>
@@ -32028,16 +32043,16 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="43.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8">
+    <row r="1" spans="1:8" ht="30">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -32063,7 +32078,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="31.95" customHeight="1">
+    <row r="2" spans="1:8" ht="31.9" customHeight="1">
       <c r="A2" s="46" t="s">
         <v>105</v>
       </c>
@@ -32089,7 +32104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="31.95" customHeight="1">
+    <row r="3" spans="1:8" ht="31.9" customHeight="1">
       <c r="A3" s="46"/>
       <c r="B3" s="47"/>
       <c r="C3" s="53"/>
@@ -32120,6 +32135,108 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D011AC19-4C52-43BF-AEA4-719A8F1801E3}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="50.25" customHeight="1">
+      <c r="A2" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="48">
+        <v>44692</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="35">
+        <v>44692</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="49"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="46"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="49"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{C0687E38-DDE0-4530-B22D-9FFF83BFE362}">
+      <formula1>Options</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J9"/>
@@ -32128,19 +32245,19 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="29"/>
-    <col min="4" max="4" width="20.6640625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="29" customWidth="1"/>
+    <col min="1" max="3" width="8.85546875" style="29"/>
+    <col min="4" max="4" width="20.7109375" style="29" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="29" customWidth="1"/>
     <col min="6" max="6" width="10" style="29" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" style="29" customWidth="1"/>
-    <col min="8" max="17" width="8.88671875" style="29"/>
-    <col min="18" max="19" width="8.88671875" style="29" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="29"/>
+    <col min="7" max="7" width="13.85546875" style="29" customWidth="1"/>
+    <col min="8" max="17" width="8.85546875" style="29"/>
+    <col min="18" max="19" width="8.85546875" style="29" customWidth="1"/>
+    <col min="20" max="16384" width="8.85546875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -32168,7 +32285,7 @@
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
     </row>
-    <row r="2" spans="1:10" ht="34.200000000000003" customHeight="1">
+    <row r="2" spans="1:10" ht="34.15" customHeight="1">
       <c r="A2" s="42" t="s">
         <v>84</v>
       </c>
@@ -32196,7 +32313,7 @@
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
     </row>
-    <row r="3" spans="1:10" ht="29.4" customHeight="1">
+    <row r="3" spans="1:10" ht="29.45" customHeight="1">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -32208,7 +32325,7 @@
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
     </row>
-    <row r="4" spans="1:10" ht="29.4" customHeight="1">
+    <row r="4" spans="1:10" ht="29.45" customHeight="1">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -32220,7 +32337,7 @@
       <c r="I4" s="36"/>
       <c r="J4" s="36"/>
     </row>
-    <row r="5" spans="1:10" ht="29.4" customHeight="1">
+    <row r="5" spans="1:10" ht="29.45" customHeight="1">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -32232,7 +32349,7 @@
       <c r="I5" s="36"/>
       <c r="J5" s="36"/>
     </row>
-    <row r="6" spans="1:10" ht="28.2" customHeight="1">
+    <row r="6" spans="1:10" ht="28.15" customHeight="1">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -32281,12 +32398,12 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32338,7 +32455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4">
+    <row r="3" spans="1:8">
       <c r="A3" s="44" t="s">
         <v>92</v>
       </c>
@@ -32358,7 +32475,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="14.4">
+    <row r="4" spans="1:8">
       <c r="A4" s="44" t="s">
         <v>93</v>
       </c>
@@ -32378,7 +32495,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="43.2">
+    <row r="5" spans="1:8" ht="45">
       <c r="A5" s="44" t="s">
         <v>94</v>
       </c>
@@ -32404,7 +32521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.4">
+    <row r="6" spans="1:8">
       <c r="A6" s="44" t="s">
         <v>95</v>
       </c>
@@ -32418,7 +32535,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" thickBot="1">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1">
       <c r="A7" s="45" t="s">
         <v>96</v>
       </c>
@@ -32453,9 +32570,9 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="61.6640625" customWidth="1"/>
+    <col min="4" max="4" width="61.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32.25" customHeight="1">
@@ -32601,12 +32718,12 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="41.33203125" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32767,12 +32884,12 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32850,7 +32967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="43.2" customHeight="1">
+    <row r="4" spans="1:8" ht="43.15" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>36</v>
       </c>
@@ -32876,7 +32993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="409.2" customHeight="1">
+    <row r="5" spans="1:8" ht="409.15" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>37</v>
       </c>
@@ -32947,14 +33064,14 @@
       <selection sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="49.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1"/>
-    <col min="4" max="4" width="34.5546875" customWidth="1"/>
+    <col min="1" max="1" width="49.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32980,7 +33097,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4">
+    <row r="2" spans="1:8">
       <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
@@ -33091,13 +33208,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="49.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="1" max="1" width="49.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -33123,7 +33240,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4">
+    <row r="2" spans="1:8">
       <c r="A2" s="12" t="s">
         <v>61</v>
       </c>
@@ -33231,14 +33348,14 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="64.44140625" customWidth="1"/>
-    <col min="5" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="64.42578125" customWidth="1"/>
+    <col min="5" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1">
@@ -33380,23 +33497,23 @@
       <c r="I6" s="60"/>
     </row>
     <row r="7" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84" t="s">
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="85"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="91"/>
       <c r="I7" s="60" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="86.4" customHeight="1">
+    <row r="8" spans="1:9" ht="86.45" customHeight="1">
       <c r="A8" s="26" t="s">
         <v>69</v>
       </c>
@@ -33423,7 +33540,7 @@
       </c>
       <c r="I8" s="60"/>
     </row>
-    <row r="9" spans="1:9" ht="49.95" customHeight="1">
+    <row r="9" spans="1:9" ht="49.9" customHeight="1">
       <c r="A9" s="26" t="s">
         <v>73</v>
       </c>
@@ -33504,7 +33621,7 @@
       </c>
       <c r="I11" s="60"/>
     </row>
-    <row r="12" spans="1:9" ht="43.2">
+    <row r="12" spans="1:9" ht="45">
       <c r="A12" s="26" t="s">
         <v>78</v>
       </c>
@@ -33531,22 +33648,22 @@
       </c>
       <c r="I12" s="60"/>
     </row>
-    <row r="13" spans="1:9" ht="28.2" customHeight="1">
-      <c r="A13" s="83" t="s">
+    <row r="13" spans="1:9" ht="28.15" customHeight="1">
+      <c r="A13" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="85"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="91"/>
       <c r="I13" s="60" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.8">
+    <row r="14" spans="1:9" ht="30">
       <c r="A14" s="26" t="s">
         <v>99</v>
       </c>
@@ -33574,19 +33691,19 @@
       <c r="I14" s="60"/>
     </row>
     <row r="15" spans="1:9" ht="33" customHeight="1">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="85"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="91"/>
       <c r="I15" s="60"/>
     </row>
-    <row r="16" spans="1:9" ht="28.2" customHeight="1">
+    <row r="16" spans="1:9" ht="28.15" customHeight="1">
       <c r="A16" s="50" t="s">
         <v>118</v>
       </c>

--- a/Monitor and Control/Reviews.xlsx
+++ b/Monitor and Control/Reviews.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ossay\Downloads\New folder\TravelAdvisor\Monitor and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nadaf\Desktop\ITI\QA\QA_workshop\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6E8D5F-AE94-4687-A47F-4984B208AD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F55A915-F94C-4E55-AA6A-AE073DC34370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMP" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
   <definedNames>
     <definedName name="Options">Options!$B$1:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="152">
   <si>
     <t>Review No.</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>ERD_04</t>
-  </si>
-  <si>
-    <t>ERD_05</t>
   </si>
   <si>
     <t>ERD_06</t>
@@ -433,11 +430,6 @@
  is redudant.</t>
   </si>
   <si>
-    <t>In admin entity, name of the admin should be username,
-In User entity, username is missed.
-In Tour entity, start date should be end date.</t>
-  </si>
-  <si>
     <t>Aya  Ahmed</t>
   </si>
   <si>
@@ -451,20 +443,6 @@
   </si>
   <si>
     <t>All dates in constraints assigned in the time section are not correct.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.  About us in the navigation bar is missed in 
-Layout_Add_Admin
-Layout_Add_Tour
-Layout_Add_User
-2. The name in the Layout_Add_Admin should be username
-3. Tour name is written wrong, Flight_Date is missed, end date is missed, Duration,  in the Layout_Add_Tour, Button should be added only.
-4. About us button in Tour 1 is redundant as it is already in the navigation bar. 
-5. Start date should bd end date.
-6. The rating is missed in Tour1 where user can insert his rating.
-7. Home is missed in the navigation bar in Home in layout_Home.
-8. Home for the user is missed as Layout.
-</t>
   </si>
   <si>
     <t>TB_03</t>
@@ -501,6 +479,64 @@
   </si>
   <si>
     <t>Data types in database is not valid</t>
+  </si>
+  <si>
+    <t>low-level designs weren't accurate enough.</t>
+  </si>
+  <si>
+    <t>12/5</t>
+  </si>
+  <si>
+    <t>the if-else should be in two blocks , 
+db wasn't should be in the digram.</t>
+  </si>
+  <si>
+    <t>10/5</t>
+  </si>
+  <si>
+    <t>13/5</t>
+  </si>
+  <si>
+    <t>In admin entity, name of the admin should be username,
+In User entity, username is missed.
+In Tour entity, start date should be end date.
+The relation between tour, and the user should be 1 to many.</t>
+  </si>
+  <si>
+    <t>Remove feedback, rating functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  About us in the navigation bar is missed in 
+Layout_Add_Admin
+Layout_Add_Tour
+Layout_Add_User
+2. The name in the Layout_Add_Admin should be username
+3. Tour name is written wrong, Flight_Date is missed, end date is missed, Duration,  in the Layout_Add_Tour, Button should be added only.
+4. About us button in Tour 1 is redundant as it is already in the navigation bar. 
+5. Start date should bd end date.
+6. Home is missed in the navigation bar in Home in layout_Home.
+7. Home for the user is missed as Layout.
+</t>
+  </si>
+  <si>
+    <t>Remove video, rating, and feedback from Layout_Tour, Layout_Add_Tour
+Instead in Layout_Add_Tour remove video and inset picture.</t>
+  </si>
+  <si>
+    <t>SRS_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updating functional requirments
+</t>
+  </si>
+  <si>
+    <t>Version 1.5</t>
+  </si>
+  <si>
+    <t>Updating project schedule</t>
+  </si>
+  <si>
+    <t>11/5</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1060,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1285,6 +1321,22 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1522,7 +1574,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ar-EG"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1643,7 +1695,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ar-EG"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1927,19 +1979,19 @@
   <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB12" sqref="AB12"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="64.42578125" customWidth="1"/>
-    <col min="5" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="26" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="64.44140625" customWidth="1"/>
+    <col min="5" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="26" width="8.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="25.5" customHeight="1">
@@ -1959,13 +2011,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" s="57" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I1" s="26"/>
       <c r="J1" s="26"/>
@@ -1986,12 +2038,12 @@
       <c r="Y1" s="26"/>
       <c r="Z1" s="26"/>
       <c r="AA1" s="58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="25.5" customHeight="1">
       <c r="A2" s="87" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="88"/>
       <c r="C2" s="88"/>
@@ -2019,12 +2071,12 @@
       <c r="Y2" s="26"/>
       <c r="Z2" s="26"/>
       <c r="AA2" s="59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="37.5" customHeight="1">
       <c r="A3" s="50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>6</v>
@@ -2063,7 +2115,7 @@
     </row>
     <row r="4" spans="1:27" ht="37.5" customHeight="1">
       <c r="A4" s="50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>10</v>
@@ -2102,7 +2154,7 @@
     </row>
     <row r="5" spans="1:27" ht="37.5" customHeight="1">
       <c r="A5" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>12</v>
@@ -2141,12 +2193,12 @@
     </row>
     <row r="6" spans="1:27" ht="37.5" customHeight="1">
       <c r="A6" s="87" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" s="88"/>
       <c r="C6" s="88"/>
       <c r="D6" s="88" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E6" s="88"/>
       <c r="F6" s="88"/>
@@ -2171,21 +2223,21 @@
       <c r="Y6" s="60"/>
       <c r="Z6" s="60"/>
       <c r="AA6" s="59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="37.5" customHeight="1">
       <c r="A7" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>9</v>
@@ -2194,7 +2246,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="28" t="s">
         <v>10</v>
@@ -2221,7 +2273,7 @@
     </row>
     <row r="8" spans="1:27" ht="37.5" customHeight="1">
       <c r="A8" s="87" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="87"/>
       <c r="C8" s="87"/>
@@ -2249,21 +2301,21 @@
       <c r="Y8" s="60"/>
       <c r="Z8" s="60"/>
       <c r="AA8" s="59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="37.5" customHeight="1">
       <c r="A9" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="50" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>9</v>
@@ -2272,7 +2324,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H9" s="28" t="s">
         <v>12</v>
@@ -2299,7 +2351,7 @@
     </row>
     <row r="10" spans="1:27" ht="37.5" customHeight="1">
       <c r="A10" s="87" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" s="87"/>
       <c r="C10" s="87"/>
@@ -2327,21 +2379,21 @@
       <c r="Y10" s="60"/>
       <c r="Z10" s="60"/>
       <c r="AA10" s="59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="37.5" customHeight="1">
       <c r="A11" s="50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="50" t="s">
         <v>9</v>
@@ -2350,7 +2402,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H11" s="63" t="s">
         <v>18</v>
@@ -2377,7 +2429,7 @@
     </row>
     <row r="12" spans="1:27" ht="37.5" customHeight="1">
       <c r="A12" s="87" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" s="87"/>
       <c r="C12" s="87"/>
@@ -2405,33 +2457,33 @@
       <c r="Y12" s="60"/>
       <c r="Z12" s="60"/>
       <c r="AA12" s="59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="37.5" customHeight="1">
       <c r="A13" s="50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="E13" s="50" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G13" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="63" t="s">
         <v>136</v>
-      </c>
-      <c r="H13" s="63" t="s">
-        <v>10</v>
       </c>
       <c r="I13" s="60"/>
       <c r="J13" s="60"/>
@@ -2453,17 +2505,112 @@
       <c r="Z13" s="60"/>
       <c r="AA13" s="61"/>
     </row>
-    <row r="14" spans="1:27" ht="14.25" customHeight="1">
-      <c r="E14" s="10"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:27" ht="14.25" customHeight="1">
-      <c r="E15" s="10"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:27" ht="14.25" customHeight="1">
-      <c r="E16" s="10"/>
-      <c r="G16" s="11"/>
+    <row r="14" spans="1:27" ht="34.799999999999997" customHeight="1">
+      <c r="A14" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="60"/>
+      <c r="W14" s="60"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="61"/>
+    </row>
+    <row r="15" spans="1:27" ht="39.6" customHeight="1">
+      <c r="A15" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="60"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="60"/>
+      <c r="Z15" s="60"/>
+      <c r="AA15" s="59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="37.200000000000003" customHeight="1">
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="60"/>
+      <c r="V16" s="60"/>
+      <c r="W16" s="60"/>
+      <c r="X16" s="60"/>
+      <c r="Y16" s="60"/>
+      <c r="Z16" s="60"/>
+      <c r="AA16" s="61"/>
     </row>
     <row r="17" spans="5:7" ht="14.25" customHeight="1">
       <c r="E17" s="10"/>
@@ -2498,7 +2645,8 @@
       <c r="G24" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A15:H15"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A8:H8"/>
@@ -2506,7 +2654,7 @@
     <mergeCell ref="A12:H12"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E24" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E16:E24 E3:E15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
@@ -2523,13 +2671,13 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
+    <row r="1" spans="1:8" ht="28.8">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -2546,24 +2694,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" s="32" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="41.45" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="41.4" customHeight="1">
       <c r="A2" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="47" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>16</v>
@@ -2577,28 +2725,28 @@
     </row>
     <row r="3" spans="1:8" ht="39.6" customHeight="1">
       <c r="A3" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="47" t="s">
         <v>103</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>104</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2639,14 +2787,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="14.25" customHeight="1">
       <c r="B1" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="2:2" ht="14.25" customHeight="1">
@@ -3666,13 +3814,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="12" width="8.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="1"/>
-    <col min="14" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" customWidth="1"/>
+    <col min="14" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -3733,10 +3881,10 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="20">
         <f>COUNTIFS(PMP!E3:E1047600,"Open")</f>
@@ -3751,10 +3899,10 @@
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
       <c r="L3" s="95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N3" s="21">
         <f>COUNTIFS(SRS!E3:E1047602,"Open")</f>
@@ -3776,7 +3924,7 @@
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="93"/>
       <c r="B4" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="20">
         <f>COUNTIFS(PMP!E3:E1047600,"Closed")</f>
@@ -3792,7 +3940,7 @@
       <c r="K4" s="18"/>
       <c r="L4" s="96"/>
       <c r="M4" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N4" s="21">
         <f>COUNTIFS(SRS!E3:E1047602,"Closed")</f>
@@ -3814,7 +3962,7 @@
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="94"/>
       <c r="B5" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="20">
         <f>SUM(C3:C4)</f>
@@ -3830,7 +3978,7 @@
       <c r="K5" s="18"/>
       <c r="L5" s="97"/>
       <c r="M5" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N5" s="21">
         <f>SUM(N3:N4)</f>
@@ -31728,13 +31876,13 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <row r="1" spans="1:9" ht="28.8">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -31751,19 +31899,19 @@
         <v>4</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" s="32" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="47" t="s">
         <v>10</v>
@@ -31782,18 +31930,18 @@
       <c r="H2" s="35"/>
       <c r="I2" s="33"/>
     </row>
-    <row r="3" spans="1:9" ht="60">
+    <row r="3" spans="1:9" ht="57.6">
       <c r="A3" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>9</v>
@@ -31802,7 +31950,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H3" s="49" t="s">
         <v>18</v>
@@ -31871,13 +32019,13 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="43.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
+    <row r="1" spans="1:8" ht="28.8">
       <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
@@ -31894,24 +32042,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" s="80" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="80" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="31.9" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="60" customHeight="1">
       <c r="A2" s="67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="67" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="81" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" s="67" t="s">
         <v>16</v>
@@ -31923,50 +32071,50 @@
       <c r="G2" s="82"/>
       <c r="H2" s="82"/>
     </row>
-    <row r="3" spans="1:8" ht="31.9" customHeight="1">
+    <row r="3" spans="1:8" ht="51.6" customHeight="1">
       <c r="A3" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="67" t="s">
         <v>106</v>
-      </c>
-      <c r="B3" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="67" t="s">
-        <v>107</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="83" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H3" s="84" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="55.2" customHeight="1">
       <c r="A4" s="67" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="85">
         <v>44690</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E4" s="67" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="85">
         <v>44690</v>
@@ -31975,24 +32123,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30">
+    <row r="5" spans="1:8" ht="44.4" customHeight="1">
       <c r="A5" s="67" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="85">
         <v>44690</v>
       </c>
       <c r="D5" s="86" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E5" s="67" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" s="85">
         <v>44690</v>
@@ -32001,24 +32149,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30">
+    <row r="6" spans="1:8" ht="48.6" customHeight="1">
       <c r="A6" s="67" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="85">
         <v>44690</v>
       </c>
       <c r="D6" s="86" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E6" s="67" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" s="85">
         <v>44690</v>
@@ -32042,17 +32190,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04B1DF2-7CE8-4C79-ACD7-56C61304D32C}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="43.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
+    <row r="1" spans="1:8" ht="28.8">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -32069,27 +32217,27 @@
         <v>4</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" s="32" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="31.9" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="31.95" customHeight="1">
       <c r="A2" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="48">
         <v>44689</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>9</v>
@@ -32104,7 +32252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="31.9" customHeight="1">
+    <row r="3" spans="1:8" ht="31.95" customHeight="1">
       <c r="A3" s="46"/>
       <c r="B3" s="47"/>
       <c r="C3" s="53"/>
@@ -32143,19 +32291,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
+    <row r="1" spans="1:8" ht="28.8">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -32172,27 +32320,27 @@
         <v>4</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" s="32" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="50.25" customHeight="1">
       <c r="A2" s="46" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C2" s="48">
         <v>44692</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>9</v>
@@ -32245,19 +32393,19 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="8.85546875" style="29"/>
-    <col min="4" max="4" width="20.7109375" style="29" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="29" customWidth="1"/>
+    <col min="1" max="3" width="8.88671875" style="29"/>
+    <col min="4" max="4" width="20.6640625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="29" customWidth="1"/>
     <col min="6" max="6" width="10" style="29" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="29" customWidth="1"/>
-    <col min="8" max="17" width="8.85546875" style="29"/>
-    <col min="18" max="19" width="8.85546875" style="29" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="29"/>
+    <col min="7" max="7" width="13.88671875" style="29" customWidth="1"/>
+    <col min="8" max="17" width="8.88671875" style="29"/>
+    <col min="18" max="19" width="8.88671875" style="29" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:10" ht="28.8">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -32274,38 +32422,38 @@
         <v>4</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" s="39" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
     </row>
-    <row r="2" spans="1:10" ht="34.15" customHeight="1">
+    <row r="2" spans="1:10" ht="34.200000000000003" customHeight="1">
       <c r="A2" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="42" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H2" s="42" t="s">
         <v>18</v>
@@ -32313,7 +32461,7 @@
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
     </row>
-    <row r="3" spans="1:10" ht="29.45" customHeight="1">
+    <row r="3" spans="1:10" ht="29.4" customHeight="1">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -32325,7 +32473,7 @@
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
     </row>
-    <row r="4" spans="1:10" ht="29.45" customHeight="1">
+    <row r="4" spans="1:10" ht="29.4" customHeight="1">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -32337,7 +32485,7 @@
       <c r="I4" s="36"/>
       <c r="J4" s="36"/>
     </row>
-    <row r="5" spans="1:10" ht="29.45" customHeight="1">
+    <row r="5" spans="1:10" ht="29.4" customHeight="1">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -32349,7 +32497,7 @@
       <c r="I5" s="36"/>
       <c r="J5" s="36"/>
     </row>
-    <row r="6" spans="1:10" ht="28.15" customHeight="1">
+    <row r="6" spans="1:10" ht="28.2" customHeight="1">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -32395,22 +32543,24 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="101"/>
+    <col min="4" max="4" width="36.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="101"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="103" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -32420,23 +32570,23 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="99" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="57" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45" customHeight="1">
       <c r="A2" s="44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="77" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -32446,23 +32596,23 @@
         <v>9</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="98" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="40.200000000000003" customHeight="1">
       <c r="A3" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="77" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -32472,17 +32622,17 @@
         <v>9</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="39" customHeight="1">
       <c r="A4" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="77" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -32492,21 +32642,21 @@
         <v>9</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="45">
+    <row r="5" spans="1:8" ht="43.2">
       <c r="A5" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="68" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>9</v>
@@ -32515,39 +32665,63 @@
         <v>18</v>
       </c>
       <c r="G5" s="69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H5" s="70" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="39.6" customHeight="1">
       <c r="A6" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1">
+      <c r="F6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="41.4" customHeight="1" thickBot="1">
       <c r="A7" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="100" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="102" t="s">
+        <v>140</v>
+      </c>
       <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c r="F7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="100" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -32564,15 +32738,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="61.7109375" customWidth="1"/>
+    <col min="4" max="4" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="101"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32.25" customHeight="1">
@@ -32589,13 +32764,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="99" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1">
@@ -32614,7 +32789,7 @@
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="98" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -32635,7 +32810,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
+      <c r="F3" s="98"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="34.5" customHeight="1">
@@ -32652,7 +32827,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
+      <c r="F4" s="98"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="39" customHeight="1">
@@ -32663,44 +32838,37 @@
         <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="98"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="45" customHeight="1">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:7" ht="76.8" customHeight="1">
+      <c r="A6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="100" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="102" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" ht="45" customHeight="1">
-      <c r="A7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
+      <c r="F6" s="100" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32714,16 +32882,16 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="41.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32740,18 +32908,18 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30.75" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>12</v>
@@ -32760,7 +32928,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>9</v>
@@ -32777,7 +32945,7 @@
     </row>
     <row r="3" spans="1:8" ht="33" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
@@ -32797,16 +32965,16 @@
     </row>
     <row r="4" spans="1:8" ht="32.25" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>9</v>
@@ -32815,7 +32983,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>13</v>
@@ -32823,21 +32991,33 @@
     </row>
     <row r="5" spans="1:8" ht="33.75" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -32851,7 +33031,7 @@
     </row>
     <row r="7" spans="1:8" ht="30.75" customHeight="1" thickBot="1">
       <c r="A7" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -32880,16 +33060,16 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32906,18 +33086,18 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="36" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -32926,7 +33106,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>9</v>
@@ -32943,95 +33123,111 @@
     </row>
     <row r="3" spans="1:8" ht="39" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="43.15" customHeight="1">
+    <row r="4" spans="1:8" ht="43.2" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="409.15" customHeight="1">
+    <row r="5" spans="1:8" ht="409.2" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="32.25" customHeight="1">
+        <v>52</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="69" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>146</v>
+      </c>
       <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="F6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="32.25" customHeight="1" thickBot="1">
       <c r="A7" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -33064,14 +33260,14 @@
       <selection sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="49.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="49.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -33088,18 +33284,18 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.4">
       <c r="A2" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -33119,7 +33315,7 @@
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -33133,7 +33329,7 @@
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -33147,7 +33343,7 @@
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -33161,7 +33357,7 @@
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -33175,7 +33371,7 @@
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -33208,13 +33404,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="49.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="49.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -33231,18 +33427,18 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.4">
       <c r="A2" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -33262,7 +33458,7 @@
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -33276,7 +33472,7 @@
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -33290,7 +33486,7 @@
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -33304,7 +33500,7 @@
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -33318,7 +33514,7 @@
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -33345,17 +33541,17 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="64.42578125" customWidth="1"/>
-    <col min="5" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="64.44140625" customWidth="1"/>
+    <col min="5" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1">
@@ -33375,48 +33571,48 @@
         <v>4</v>
       </c>
       <c r="F1" s="57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" s="57" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I1" s="57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="25.5" customHeight="1">
       <c r="A2" s="73" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="75" t="s">
-        <v>125</v>
-      </c>
       <c r="D2" s="64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E2" s="71"/>
       <c r="F2" s="71"/>
       <c r="G2" s="71"/>
       <c r="H2" s="72"/>
       <c r="I2" s="60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="37.5" customHeight="1">
       <c r="A3" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>16</v>
@@ -33431,7 +33627,7 @@
     </row>
     <row r="4" spans="1:9" ht="37.5" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>13</v>
@@ -33452,35 +33648,35 @@
     </row>
     <row r="5" spans="1:9" ht="37.5" customHeight="1">
       <c r="A5" s="76" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C5" s="76"/>
       <c r="D5" s="65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" s="65"/>
       <c r="F5" s="65"/>
       <c r="G5" s="65"/>
       <c r="H5" s="66"/>
       <c r="I5" s="60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="37.5" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>49</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>50</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>9</v>
@@ -33489,7 +33685,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" s="28" t="s">
         <v>10</v>
@@ -33498,33 +33694,33 @@
     </row>
     <row r="7" spans="1:9" ht="37.5" customHeight="1">
       <c r="A7" s="89" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="90"/>
       <c r="D7" s="90" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E7" s="90"/>
       <c r="F7" s="90"/>
       <c r="G7" s="90"/>
       <c r="H7" s="91"/>
       <c r="I7" s="60" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="86.45" customHeight="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="86.4" customHeight="1">
       <c r="A8" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>9</v>
@@ -33533,25 +33729,25 @@
         <v>13</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H8" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I8" s="60"/>
     </row>
-    <row r="9" spans="1:9" ht="49.9" customHeight="1">
+    <row r="9" spans="1:9" ht="49.95" customHeight="1">
       <c r="A9" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>9</v>
@@ -33560,7 +33756,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H9" s="28" t="s">
         <v>18</v>
@@ -33569,16 +33765,16 @@
     </row>
     <row r="10" spans="1:9" ht="60.6" customHeight="1">
       <c r="A10" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>9</v>
@@ -33587,7 +33783,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H10" s="28" t="s">
         <v>18</v>
@@ -33596,16 +33792,16 @@
     </row>
     <row r="11" spans="1:9" ht="72" customHeight="1">
       <c r="A11" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="26" t="s">
         <v>9</v>
@@ -33614,25 +33810,25 @@
         <v>13</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H11" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="60"/>
     </row>
-    <row r="12" spans="1:9" ht="45">
+    <row r="12" spans="1:9" ht="43.2">
       <c r="A12" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" s="26" t="s">
         <v>9</v>
@@ -33641,16 +33837,16 @@
         <v>13</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H12" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I12" s="60"/>
     </row>
-    <row r="13" spans="1:9" ht="28.15" customHeight="1">
+    <row r="13" spans="1:9" ht="28.2" customHeight="1">
       <c r="A13" s="89" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B13" s="90"/>
       <c r="C13" s="90"/>
@@ -33660,21 +33856,21 @@
       <c r="G13" s="90"/>
       <c r="H13" s="91"/>
       <c r="I13" s="60" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="30">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="28.8">
       <c r="A14" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="C14" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="27" t="s">
         <v>100</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>101</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>9</v>
@@ -33683,7 +33879,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H14" s="28" t="s">
         <v>13</v>
@@ -33692,7 +33888,7 @@
     </row>
     <row r="15" spans="1:9" ht="33" customHeight="1">
       <c r="A15" s="89" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" s="90"/>
       <c r="C15" s="90"/>
@@ -33703,74 +33899,113 @@
       <c r="H15" s="91"/>
       <c r="I15" s="60"/>
     </row>
-    <row r="16" spans="1:9" ht="28.15" customHeight="1">
+    <row r="16" spans="1:9" ht="28.2" customHeight="1">
       <c r="A16" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" s="50" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="60"/>
+    </row>
+    <row r="17" spans="1:9" ht="31.2" customHeight="1">
+      <c r="A17" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="60"/>
-    </row>
-    <row r="17" spans="5:7" ht="14.25" customHeight="1">
-      <c r="E17" s="10"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="5:7" ht="14.25" customHeight="1">
-      <c r="E18" s="10"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="5:7" ht="14.25" customHeight="1">
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="41.4" customHeight="1">
+      <c r="A18" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="60"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" customHeight="1">
       <c r="E19" s="10"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="5:7" ht="14.25" customHeight="1">
+    <row r="20" spans="1:9" ht="14.25" customHeight="1">
       <c r="E20" s="10"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="5:7" ht="14.25" customHeight="1">
+    <row r="21" spans="1:9" ht="14.25" customHeight="1">
       <c r="E21" s="10"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="5:7" ht="14.25" customHeight="1">
+    <row r="22" spans="1:9" ht="14.25" customHeight="1">
       <c r="E22" s="10"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="5:7" ht="14.25" customHeight="1">
+    <row r="23" spans="1:9" ht="14.25" customHeight="1">
       <c r="E23" s="10"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="5:7" ht="14.25" customHeight="1">
+    <row r="24" spans="1:9" ht="14.25" customHeight="1">
       <c r="E24" s="10"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="5:7" ht="14.25" customHeight="1">
+    <row r="25" spans="1:9" ht="14.25" customHeight="1">
       <c r="E25" s="10"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="5:7" ht="14.25" customHeight="1">
+    <row r="26" spans="1:9" ht="14.25" customHeight="1">
       <c r="E26" s="10"/>
       <c r="G26" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A17:H17"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E4 E6:E26" xr:uid="{00000000-0002-0000-0800-000000000000}">

--- a/Monitor and Control/Reviews.xlsx
+++ b/Monitor and Control/Reviews.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nadaf\Desktop\ITI\QA\QA_workshop\Monitor and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI Study\QA Project\TravelAdvisor\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F68D921-9A3B-4AD4-B0A7-41865C62503A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDE6813-23A4-4049-96B3-02B590DD3643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMP" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -555,9 +557,6 @@
     <t>Ahsry</t>
   </si>
   <si>
-    <t>The impact summary needs to be clarified.</t>
-  </si>
-  <si>
     <t>IA_03</t>
   </si>
   <si>
@@ -565,6 +564,10 @@
 scope: The scope will be reduced according to the change to 4 modules.
 Time: The schedule will be increased according to the changes that happen in SRS, Scope statement, Designs, and Development by week.
 </t>
+  </si>
+  <si>
+    <t>1-The impact summary needs to be clarified.
+2-Add more than one solution like postponed to the next release</t>
   </si>
 </sst>
 </file>
@@ -1606,7 +1609,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ar-EG"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1727,7 +1730,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ar-EG"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -33472,8 +33475,8 @@
       <c r="C3" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>157</v>
+      <c r="D3" s="25" t="s">
+        <v>159</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>18</v>
@@ -33483,7 +33486,7 @@
     </row>
     <row r="4" spans="1:7" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>136</v>
@@ -33492,7 +33495,7 @@
         <v>153</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>

--- a/Monitor and Control/Reviews.xlsx
+++ b/Monitor and Control/Reviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI Study\QA Project\TravelAdvisor\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDE6813-23A4-4049-96B3-02B590DD3643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C4BC19-2F2C-4B2F-AE66-171E199D6FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Monitor and Control/Reviews.xlsx
+++ b/Monitor and Control/Reviews.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI Study\QA Project\TravelAdvisor\Monitor and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nadaf\Desktop\ITI\QA\Travel_Advisor\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C4BC19-2F2C-4B2F-AE66-171E199D6FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAB2808-723F-4EB1-9C2C-21501396053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="9420" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMP" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -51,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="163">
   <si>
     <t>Review No.</t>
   </si>
@@ -568,6 +566,16 @@
   <si>
     <t>1-The impact summary needs to be clarified.
 2-Add more than one solution like postponed to the next release</t>
+  </si>
+  <si>
+    <t>Version 2.0</t>
+  </si>
+  <si>
+    <t>SRS_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update product features and product perspective in administrator.
+</t>
   </si>
 </sst>
 </file>
@@ -1609,7 +1617,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ar-EG"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1730,7 +1738,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ar-EG"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2702,8 +2710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3130,13 +3138,41 @@
       </c>
       <c r="I18" s="60"/>
     </row>
-    <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="10"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="10"/>
-      <c r="G20" s="11"/>
+    <row r="19" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="95" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="50"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="60"/>
     </row>
     <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E21" s="10"/>
@@ -3163,11 +3199,12 @@
       <c r="G26" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A19:H19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E4 E6:E26" xr:uid="{00000000-0002-0000-0800-000000000000}">
@@ -33412,7 +33449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C639E5-DB13-4402-A4D9-DAAD93882ACC}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -33917,7 +33954,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H7"/>
+      <selection activeCell="C30" sqref="B29:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Monitor and Control/Reviews.xlsx
+++ b/Monitor and Control/Reviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nadaf\Desktop\ITI\QA\Travel_Advisor\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAB2808-723F-4EB1-9C2C-21501396053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2496E1-7890-4ED1-92DF-6497B88E23AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="9420" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2710,7 +2710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>

--- a/Monitor and Control/Reviews.xlsx
+++ b/Monitor and Control/Reviews.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nadaf\Desktop\ITI\QA\Travel_Advisor\Monitor and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI Study\QA Project\TravelAdvisor\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAB2808-723F-4EB1-9C2C-21501396053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E8D91B-7124-46AE-A7AD-4A2F74E214E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="9420" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMP" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="188">
   <si>
     <t>Review No.</t>
   </si>
@@ -577,6 +579,81 @@
     <t xml:space="preserve">Update product features and product perspective in administrator.
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">the 8 character text are in which language /is user able to enter in arabic language </t>
+  </si>
+  <si>
+    <t>"It can be a combination of numbers and some special characters _, # " are those only the accepted characters ?</t>
+  </si>
+  <si>
+    <t>11 numbers in which format / according to which country // should state that it should start with "01"</t>
+  </si>
+  <si>
+    <t>is this unique UID is visable to the user ?</t>
+  </si>
+  <si>
+    <t>what is the content of the confirmation message?</t>
+  </si>
+  <si>
+    <t>how is it going to search the admin table if no data is entered /should refer to that admin must enter username and password field first?</t>
+  </si>
+  <si>
+    <t>"a button (add trip) and submit button" what is the diffrence?</t>
+  </si>
+  <si>
+    <t>what is the curency ?</t>
+  </si>
+  <si>
+    <t>"Dates should be written by the user and should start from the day it’s recorded" is user able to add tour ? // if is the admin what is meant by recoreded</t>
+  </si>
+  <si>
+    <t>is admin able to add images from add image button ??</t>
+  </si>
+  <si>
+    <t>what is the admin add the same image 2 time ??</t>
+  </si>
+  <si>
+    <t>osama</t>
+  </si>
+  <si>
+    <t>17/6</t>
+  </si>
+  <si>
+    <t>17/7</t>
+  </si>
+  <si>
+    <t>17/8</t>
+  </si>
+  <si>
+    <t>17/9</t>
+  </si>
+  <si>
+    <t>17/10</t>
+  </si>
+  <si>
+    <t>17/11</t>
+  </si>
+  <si>
+    <t>17/12</t>
+  </si>
+  <si>
+    <t>17/13</t>
+  </si>
+  <si>
+    <t>17/14</t>
+  </si>
+  <si>
+    <t>17/15</t>
+  </si>
+  <si>
+    <t>17/16</t>
+  </si>
+  <si>
+    <t>19/5</t>
+  </si>
+  <si>
+    <t>Version 2.1</t>
+  </si>
 </sst>
 </file>
 
@@ -585,7 +662,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,6 +743,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1617,7 +1700,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ar-EG"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1738,7 +1821,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ar-EG"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2708,10 +2791,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3169,45 +3252,260 @@
       <c r="E20" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="50"/>
-      <c r="G20" s="62"/>
+      <c r="F20" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" s="56" t="s">
+        <v>153</v>
+      </c>
       <c r="H20" s="63"/>
       <c r="I20" s="60"/>
     </row>
-    <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="10"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="10"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="10"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="10"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="10"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="10"/>
-      <c r="G26" s="11"/>
+    <row r="21" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="95" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="60"/>
+    </row>
+    <row r="22" spans="1:9" s="27" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B22" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" s="56" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="27" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="56" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="27" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="G24" s="56" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B25" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" s="56" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B26" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" s="56" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="27" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="G27" s="56" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B28" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="56" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B29" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="56" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B30" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" s="56" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B31" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="G31" s="56" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B32" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="G32" s="56" t="s">
+        <v>186</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A21:H21"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="A19:H19"/>
   </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E4 E6:E26" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E4 E6:E32" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>

--- a/Monitor and Control/Reviews.xlsx
+++ b/Monitor and Control/Reviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ossay\Downloads\New folder\TravelAdvisor\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E6B8F4-D2E6-424B-BE87-5F74830A70CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00FD514-5BC4-404E-8F80-BC93A4BC748F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="12" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="196">
   <si>
     <t>Review No.</t>
   </si>
@@ -664,6 +664,18 @@
   </si>
   <si>
     <t>Login Admin Page Test cases steps &amp; Precondtions not not described correctly for example in steps you check the box after clicking login button</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>TC_User_Sign_Up_007 not correct according REQ-07-Signup in SRS and same in bug report</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>TC_User_Sign_Up_008 not correct according REQ-07-Signup in SRS and same in bug report</t>
   </si>
 </sst>
 </file>
@@ -2116,7 +2128,7 @@
   <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -32735,7 +32747,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32824,9 +32836,7 @@
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
-      <c r="E4" s="47" t="s">
-        <v>9</v>
-      </c>
+      <c r="E4" s="47"/>
       <c r="F4" s="25"/>
       <c r="G4" s="35"/>
       <c r="H4" s="35"/>
@@ -33249,15 +33259,16 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52ACC88D-AEC9-45BB-8F2C-785C83602618}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -33300,13 +33311,17 @@
         <v>190</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="G2" s="35">
+        <v>44705</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
@@ -33322,27 +33337,73 @@
         <v>191</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="49"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="49"/>
+      <c r="G3" s="35">
+        <v>44705</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="48">
+        <v>44706</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="35">
+        <v>44706</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="48">
+        <v>44706</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="35">
+        <v>44706</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{43EE605C-4A86-413C-81B4-433FFE0F9D6A}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E5" xr:uid="{43EE605C-4A86-413C-81B4-433FFE0F9D6A}">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>

--- a/Monitor and Control/Reviews.xlsx
+++ b/Monitor and Control/Reviews.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nadaf\Desktop\ITI\QA\Travel_Advisor\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA2CE3F-F7E8-4CDD-92D2-8FAA388203D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6865BA68-A143-492B-8698-E857C09E0F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="13" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="13" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMP" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="198">
   <si>
     <t>Review No.</t>
   </si>
@@ -667,6 +667,24 @@
   </si>
   <si>
     <t>Version 1.7</t>
+  </si>
+  <si>
+    <t>TP_01</t>
+  </si>
+  <si>
+    <t>25/5</t>
+  </si>
+  <si>
+    <t>There are no tests include exploartory testing, please remove it from the plan in section validation.</t>
+  </si>
+  <si>
+    <t>26/5</t>
+  </si>
+  <si>
+    <t>No issues found.</t>
+  </si>
+  <si>
+    <t>BR_01</t>
   </si>
 </sst>
 </file>
@@ -1580,9 +1598,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1599,6 +1614,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3192,7 +3210,7 @@
       <c r="E7" s="109"/>
       <c r="F7" s="109"/>
       <c r="G7" s="109"/>
-      <c r="H7" s="110"/>
+      <c r="H7" s="116"/>
       <c r="I7" s="60" t="s">
         <v>103</v>
       </c>
@@ -3342,7 +3360,7 @@
       <c r="E13" s="109"/>
       <c r="F13" s="109"/>
       <c r="G13" s="109"/>
-      <c r="H13" s="110"/>
+      <c r="H13" s="116"/>
       <c r="I13" s="60" t="s">
         <v>103</v>
       </c>
@@ -3384,7 +3402,7 @@
       <c r="E15" s="109"/>
       <c r="F15" s="109"/>
       <c r="G15" s="109"/>
-      <c r="H15" s="110"/>
+      <c r="H15" s="116"/>
       <c r="I15" s="60"/>
     </row>
     <row r="16" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3424,7 +3442,7 @@
       <c r="E17" s="109"/>
       <c r="F17" s="109"/>
       <c r="G17" s="109"/>
-      <c r="H17" s="110"/>
+      <c r="H17" s="116"/>
       <c r="I17" s="60" t="s">
         <v>103</v>
       </c>
@@ -3466,7 +3484,7 @@
       <c r="E19" s="109"/>
       <c r="F19" s="109"/>
       <c r="G19" s="109"/>
-      <c r="H19" s="110"/>
+      <c r="H19" s="116"/>
       <c r="I19" s="60" t="s">
         <v>103</v>
       </c>
@@ -3506,7 +3524,7 @@
       <c r="E21" s="109"/>
       <c r="F21" s="109"/>
       <c r="G21" s="109"/>
-      <c r="H21" s="110"/>
+      <c r="H21" s="116"/>
       <c r="I21" s="60"/>
     </row>
     <row r="22" spans="1:9" s="27" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3730,17 +3748,17 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="111" t="s">
+      <c r="A33" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="B33" s="112"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="111" t="s">
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="112"/>
+      <c r="I33" s="110" t="s">
         <v>188</v>
       </c>
       <c r="J33" s="92"/>
@@ -3754,15 +3772,15 @@
       <c r="R33" s="109"/>
     </row>
     <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="114"/>
-      <c r="B34" s="115"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="114"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="113"/>
       <c r="J34" s="92"/>
       <c r="K34" s="92"/>
       <c r="L34" s="92"/>
@@ -3775,16 +3793,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A19:H19"/>
     <mergeCell ref="Q33:R33"/>
     <mergeCell ref="Q34:R34"/>
     <mergeCell ref="A33:H34"/>
     <mergeCell ref="I33:I34"/>
     <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A19:H19"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="1">
@@ -33449,7 +33467,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33650,14 +33668,81 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87AEFF5-F675-4891-84E9-A6014F4FDE3F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="43" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="35">
+        <v>44706</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2" xr:uid="{F9998060-3CA5-4CA1-9721-57E8848EB83C}">
+      <formula1>Options</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -33814,28 +33899,135 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF38150-4F6D-490D-AB31-ACE32D43D5BA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="38.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="78" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2" xr:uid="{54877E34-370C-4F23-B6F9-8DC9D3862CB0}">
+      <formula1>Options</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E7D7A4-F2C8-448C-B10A-90DB438F1637}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="29.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="78" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2" xr:uid="{9F53CF53-7C0D-4147-9C6F-2316339E4119}">
+      <formula1>Options</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
